--- a/Data Structures/linked_list/Singly Linked List/Singly Linked_List.xlsx
+++ b/Data Structures/linked_list/Singly Linked List/Singly Linked_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="525" windowWidth="14805" windowHeight="7590"/>
+    <workbookView xWindow="240" yWindow="585" windowWidth="14805" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="75">
   <si>
     <t>Singly Linked List 128</t>
   </si>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -305,6 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -702,11 +703,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106374272"/>
-        <c:axId val="106375808"/>
+        <c:axId val="97383936"/>
+        <c:axId val="97400320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106374272"/>
+        <c:axId val="97383936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -735,7 +736,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106375808"/>
+        <c:crossAx val="97400320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -743,7 +744,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106375808"/>
+        <c:axId val="97400320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,7 +774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106374272"/>
+        <c:crossAx val="97383936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1177,11 +1178,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93731456"/>
-        <c:axId val="93733632"/>
+        <c:axId val="98920320"/>
+        <c:axId val="98941184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93731456"/>
+        <c:axId val="98920320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1211,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93733632"/>
+        <c:crossAx val="98941184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1218,7 +1219,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93733632"/>
+        <c:axId val="98941184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,7 +1249,318 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93731456"/>
+        <c:crossAx val="98920320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Singly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> Linked List; Stoker; Test-And-Test-and-Set Lock vs Lockless; 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3457942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3416827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7830031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3385509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>868520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>817838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>830026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>933362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1850426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1181226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>356901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>219340</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155932</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>660067</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>353075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="59022336"/>
+        <c:axId val="59176064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="59022336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="59176064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="59176064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="59022336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1274,16 +1586,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1304,16 +1616,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>857249</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1329,6 +1641,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2295525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1624,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:S470"/>
+  <dimension ref="A4:X470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="Q238" activeCellId="1" sqref="L238:L239 Q238:Q239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,15 +1981,17 @@
     <col min="3" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" customWidth="1"/>
     <col min="16" max="16" width="15.28515625" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" customWidth="1"/>
+    <col min="17" max="17" width="24" customWidth="1"/>
     <col min="18" max="18" width="14.7109375" customWidth="1"/>
     <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="22" max="22" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4604,7 +4950,7 @@
       <c r="L128" s="1"/>
       <c r="O128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>63</v>
       </c>
@@ -4634,7 +4980,7 @@
       </c>
       <c r="J129" s="8"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>64</v>
       </c>
@@ -4664,7 +5010,7 @@
       </c>
       <c r="J130" s="8"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>65</v>
       </c>
@@ -4694,11 +5040,11 @@
       </c>
       <c r="J131" s="8"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="J132" s="8"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>72</v>
       </c>
@@ -4728,7 +5074,7 @@
       </c>
       <c r="J133" s="8"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>73</v>
       </c>
@@ -4758,7 +5104,7 @@
       </c>
       <c r="J134" s="8"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>74</v>
       </c>
@@ -4788,33 +5134,33 @@
       </c>
       <c r="J135" s="8"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="1"/>
       <c r="J136" s="8"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="1"/>
       <c r="J137" s="8"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="J138" s="8"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>34</v>
       </c>
       <c r="B139" s="1"/>
       <c r="J139" s="8"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="E140" s="2"/>
       <c r="J140" s="8"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -4824,8 +5170,9 @@
         <v>4</v>
       </c>
       <c r="J141" s="8"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141" s="6"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>46</v>
       </c>
@@ -4845,8 +5192,9 @@
         <v>35</v>
       </c>
       <c r="J142" s="8"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142" s="6"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>232504781308</v>
       </c>
@@ -4860,8 +5208,9 @@
         <v>36</v>
       </c>
       <c r="J143" s="8"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143" s="6"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>765253527</v>
       </c>
@@ -4875,8 +5224,9 @@
         <v>37</v>
       </c>
       <c r="J144" s="8"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144" s="6"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>304207260</v>
       </c>
@@ -4899,8 +5249,9 @@
         <v>39.825789330883907</v>
       </c>
       <c r="J145" s="8"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145" s="6"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>80487729320</v>
       </c>
@@ -4914,8 +5265,9 @@
         <v>39</v>
       </c>
       <c r="J146" s="8"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146" s="6"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>142488231</v>
       </c>
@@ -4937,8 +5289,9 @@
         <v>0.44252748824825139</v>
       </c>
       <c r="J147" s="8"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147" s="6"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148">
         <v>155909588678</v>
@@ -4954,8 +5307,9 @@
         <v>41</v>
       </c>
       <c r="J148" s="8"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148" s="6"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="1">
         <v>1181484.9685269999</v>
@@ -4971,8 +5325,9 @@
         <v>42</v>
       </c>
       <c r="J149" s="8"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149" s="6"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="1">
         <v>1181461.9046430001</v>
@@ -4988,8 +5343,9 @@
         <v>43</v>
       </c>
       <c r="J150" s="8"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150" s="6"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>2249175956576</v>
       </c>
@@ -5011,8 +5367,9 @@
         <v>85.788309048166397</v>
       </c>
       <c r="J151" s="8"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K151" s="6"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>1528415739323</v>
       </c>
@@ -5034,20 +5391,21 @@
         <v>58.437143011286032</v>
       </c>
       <c r="J152" s="8"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152" s="6"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="E153" s="2"/>
       <c r="G153" s="1"/>
       <c r="J153" s="8"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="E154" s="2"/>
       <c r="G154" s="1"/>
       <c r="J154" s="8"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>47</v>
       </c>
@@ -5068,7 +5426,7 @@
       </c>
       <c r="J155" s="8"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>587651715850</v>
       </c>
@@ -5083,7 +5441,7 @@
       </c>
       <c r="J156" s="8"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>543145791</v>
       </c>
@@ -5098,7 +5456,7 @@
       </c>
       <c r="J157" s="8"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>275196960</v>
       </c>
@@ -5122,7 +5480,7 @@
       </c>
       <c r="J158" s="8"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>196795694307</v>
       </c>
@@ -5137,7 +5495,7 @@
       </c>
       <c r="J159" s="8"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>109606814</v>
       </c>
@@ -6256,7 +6614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>1151426469293</v>
       </c>
@@ -6279,7 +6637,7 @@
         <v>64.155553579739717</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>1063436450123</v>
       </c>
@@ -6302,7 +6660,7 @@
         <v>28.275938272151713</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
@@ -6311,7 +6669,7 @@
       <c r="G227" s="8"/>
       <c r="H227" s="8"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>66</v>
       </c>
@@ -6332,7 +6690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>13981375201</v>
       </c>
@@ -6347,7 +6705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>14721072</v>
       </c>
@@ -6362,7 +6720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>7382681</v>
       </c>
@@ -6385,7 +6743,7 @@
         <v>61.567176238647747</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>2381599006</v>
       </c>
@@ -6400,7 +6758,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>19351388</v>
       </c>
@@ -6423,7 +6781,7 @@
         <v>0.90011539784072658</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>989006405</v>
       </c>
@@ -6438,7 +6796,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>7578.9756690000004</v>
       </c>
@@ -6453,7 +6811,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>7579.4249470000004</v>
       </c>
@@ -6467,8 +6825,40 @@
       <c r="H236" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K236" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L236" s="10">
+        <v>2320251390985</v>
+      </c>
+      <c r="M236" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N236" s="6"/>
+      <c r="O236" s="6"/>
+      <c r="P236" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q236" s="6">
+        <v>2680604979606</v>
+      </c>
+      <c r="R236" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S236" s="6"/>
+      <c r="T236" s="6"/>
+      <c r="U236" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="V236" s="6">
+        <v>2719592214572</v>
+      </c>
+      <c r="W236" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X236" s="6"/>
+    </row>
+    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>8723040138</v>
       </c>
@@ -6490,8 +6880,34 @@
         <f>G237/G228*100</f>
         <v>63.543928743379794</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K237" s="6"/>
+      <c r="L237" s="6">
+        <v>244173447512</v>
+      </c>
+      <c r="M237" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N237" s="6"/>
+      <c r="O237" s="6"/>
+      <c r="P237" s="6"/>
+      <c r="Q237" s="6">
+        <v>159232527381</v>
+      </c>
+      <c r="R237" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S237" s="6"/>
+      <c r="T237" s="6"/>
+      <c r="U237" s="6"/>
+      <c r="V237" s="6">
+        <v>587651715850</v>
+      </c>
+      <c r="W237" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X237" s="6"/>
+    </row>
+    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>2724689610</v>
       </c>
@@ -6513,8 +6929,34 @@
         <f>G238/G228*100</f>
         <v>23.706980674482296</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K238" s="6"/>
+      <c r="L238" s="10">
+        <v>920908737</v>
+      </c>
+      <c r="M238" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N238" s="6"/>
+      <c r="O238" s="6"/>
+      <c r="P238" s="6"/>
+      <c r="Q238" s="10">
+        <v>481953979</v>
+      </c>
+      <c r="R238" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S238" s="6"/>
+      <c r="T238" s="6"/>
+      <c r="U238" s="6"/>
+      <c r="V238" s="6">
+        <v>543145791</v>
+      </c>
+      <c r="W238" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="X238" s="6"/>
+    </row>
+    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
       <c r="D239" s="8"/>
@@ -6522,8 +6964,43 @@
       <c r="G239" s="8"/>
       <c r="H239" s="8"/>
       <c r="I239" s="8"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K239" s="6"/>
+      <c r="L239" s="10">
+        <v>376461981</v>
+      </c>
+      <c r="M239" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N239" s="6">
+        <f>L239/L238*100</f>
+        <v>40.879401603505471</v>
+      </c>
+      <c r="O239" s="6"/>
+      <c r="P239" s="6"/>
+      <c r="Q239" s="10">
+        <v>248623295</v>
+      </c>
+      <c r="R239" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S239" s="6">
+        <f>Q239/Q238*100</f>
+        <v>51.586521915612195</v>
+      </c>
+      <c r="T239" s="6"/>
+      <c r="U239" s="6"/>
+      <c r="V239" s="6">
+        <v>275196960</v>
+      </c>
+      <c r="W239" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X239" s="6">
+        <f>V239/V238*100</f>
+        <v>50.667236046021394</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>67</v>
       </c>
@@ -6543,8 +7020,34 @@
       <c r="H240" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K240" s="6"/>
+      <c r="L240" s="6">
+        <v>85035305784</v>
+      </c>
+      <c r="M240" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N240" s="6"/>
+      <c r="O240" s="6"/>
+      <c r="P240" s="6"/>
+      <c r="Q240" s="6">
+        <v>38465935329</v>
+      </c>
+      <c r="R240" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S240" s="6"/>
+      <c r="T240" s="6"/>
+      <c r="U240" s="6"/>
+      <c r="V240" s="6">
+        <v>196795694307</v>
+      </c>
+      <c r="W240" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X240" s="6"/>
+    </row>
+    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>534412494476</v>
       </c>
@@ -6557,8 +7060,43 @@
       <c r="H241" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K241" s="6"/>
+      <c r="L241" s="6">
+        <v>177461291</v>
+      </c>
+      <c r="M241" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N241" s="6">
+        <f>L241/L240*100</f>
+        <v>0.20869130693875931</v>
+      </c>
+      <c r="O241" s="6"/>
+      <c r="P241" s="6"/>
+      <c r="Q241" s="6">
+        <v>97962374</v>
+      </c>
+      <c r="R241" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S241" s="6">
+        <f>Q241/Q240*100</f>
+        <v>0.25467305854420447</v>
+      </c>
+      <c r="T241" s="6"/>
+      <c r="U241" s="6"/>
+      <c r="V241" s="6">
+        <v>109606814</v>
+      </c>
+      <c r="W241" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X241" s="6">
+        <f>V241/V240*100</f>
+        <v>5.5695737849332259E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>675674260</v>
       </c>
@@ -6571,8 +7109,34 @@
       <c r="H242" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K242" s="6"/>
+      <c r="L242" s="6">
+        <v>149791750431</v>
+      </c>
+      <c r="M242" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N242" s="6"/>
+      <c r="O242" s="6"/>
+      <c r="P242" s="6"/>
+      <c r="Q242" s="6">
+        <v>170610808948</v>
+      </c>
+      <c r="R242" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S242" s="6"/>
+      <c r="T242" s="6"/>
+      <c r="U242" s="6"/>
+      <c r="V242" s="6">
+        <v>172475484924</v>
+      </c>
+      <c r="W242" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="X242" s="6"/>
+    </row>
+    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>309275981</v>
       </c>
@@ -6593,8 +7157,34 @@
         <f>G243/G242*100</f>
         <v>47.816976174846474</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K243" s="6"/>
+      <c r="L243" s="6">
+        <v>1133318.0912250001</v>
+      </c>
+      <c r="M243" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N243" s="6"/>
+      <c r="O243" s="6"/>
+      <c r="P243" s="6"/>
+      <c r="Q243" s="6">
+        <v>1289907.2301400001</v>
+      </c>
+      <c r="R243" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S243" s="6"/>
+      <c r="T243" s="6"/>
+      <c r="U243" s="6"/>
+      <c r="V243" s="6">
+        <v>1303150.86182</v>
+      </c>
+      <c r="W243" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X243" s="6"/>
+    </row>
+    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>131904878996</v>
       </c>
@@ -6607,8 +7197,34 @@
       <c r="H244" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K244" s="6"/>
+      <c r="L244" s="6">
+        <v>1133289.957218</v>
+      </c>
+      <c r="M244" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N244" s="6"/>
+      <c r="O244" s="6"/>
+      <c r="P244" s="6"/>
+      <c r="Q244" s="6">
+        <v>1289906.2685720001</v>
+      </c>
+      <c r="R244" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S244" s="6"/>
+      <c r="T244" s="6"/>
+      <c r="U244" s="6"/>
+      <c r="V244" s="6">
+        <v>1303149.8870560001</v>
+      </c>
+      <c r="W244" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X244" s="6"/>
+    </row>
+    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>62090564</v>
       </c>
@@ -6629,8 +7245,43 @@
         <f>G245/G244*100</f>
         <v>8.569445661073799E-2</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K245" s="6"/>
+      <c r="L245" s="6">
+        <v>2188705857980</v>
+      </c>
+      <c r="M245" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N245" s="6">
+        <f>L245/L236*100</f>
+        <v>94.330548253689187</v>
+      </c>
+      <c r="O245" s="6"/>
+      <c r="P245" s="6"/>
+      <c r="Q245" s="6">
+        <v>2588398116174</v>
+      </c>
+      <c r="R245" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S245" s="6">
+        <f>Q245/Q236*100</f>
+        <v>96.560221885227094</v>
+      </c>
+      <c r="T245" s="6"/>
+      <c r="U245" s="6"/>
+      <c r="V245" s="6">
+        <v>2413624036146</v>
+      </c>
+      <c r="W245" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="X245" s="6">
+        <f>V245/V236*100</f>
+        <v>88.749483220808813</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>187237277238</v>
       </c>
@@ -6643,8 +7294,43 @@
       <c r="H246" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K246" s="6"/>
+      <c r="L246" s="10">
+        <v>1373819293598</v>
+      </c>
+      <c r="M246" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N246" s="6">
+        <f>L246/L236*100</f>
+        <v>59.209932981218131</v>
+      </c>
+      <c r="O246" s="6"/>
+      <c r="P246" s="6"/>
+      <c r="Q246" s="6">
+        <v>2288811993773</v>
+      </c>
+      <c r="R246" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S246" s="6">
+        <f>Q246/Q236*100</f>
+        <v>85.384158098125056</v>
+      </c>
+      <c r="T246" s="6"/>
+      <c r="U246" s="6"/>
+      <c r="V246" s="6">
+        <v>1251006874691</v>
+      </c>
+      <c r="W246" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="X246" s="6">
+        <f>V246/V236*100</f>
+        <v>45.999796145462902</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>1415378.6276060001</v>
       </c>
@@ -6657,8 +7343,22 @@
       <c r="H247" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K247" s="6"/>
+      <c r="L247" s="6"/>
+      <c r="M247" s="6"/>
+      <c r="N247" s="6"/>
+      <c r="O247" s="6"/>
+      <c r="P247" s="6"/>
+      <c r="Q247" s="6"/>
+      <c r="R247" s="6"/>
+      <c r="S247" s="6"/>
+      <c r="T247" s="6"/>
+      <c r="U247" s="6"/>
+      <c r="V247" s="6"/>
+      <c r="W247" s="6"/>
+      <c r="X247" s="6"/>
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>1415378.278162</v>
       </c>
@@ -6672,7 +7372,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>2629636117426</v>
       </c>
@@ -6694,7 +7394,7 @@
         <v>83.813996449621868</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>2197187922142</v>
       </c>
@@ -6716,11 +7416,11 @@
         <v>62.711155099171123</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>68</v>
       </c>
@@ -6740,7 +7440,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>72648427893</v>
       </c>
@@ -6754,7 +7454,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>24113802</v>
       </c>
@@ -6768,7 +7468,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>17643262</v>
       </c>
@@ -6790,7 +7490,7 @@
         <v>73.333797201867156</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>14469298610</v>
       </c>

--- a/Data Structures/linked_list/Singly Linked List/Singly Linked_List.xlsx
+++ b/Data Structures/linked_list/Singly Linked List/Singly Linked_List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="83">
   <si>
     <t>Singly Linked List 128</t>
   </si>
@@ -245,6 +245,30 @@
   <si>
     <t>Cube (16 Core) Lockless</t>
   </si>
+  <si>
+    <t>Compare-and-swap</t>
+  </si>
+  <si>
+    <t>Test-and-set</t>
+  </si>
+  <si>
+    <t>Test-and-test-and-set</t>
+  </si>
+  <si>
+    <t>Cycles</t>
+  </si>
+  <si>
+    <t>Cache References</t>
+  </si>
+  <si>
+    <t>Cache Misses</t>
+  </si>
+  <si>
+    <t>Branches</t>
+  </si>
+  <si>
+    <t>Branch Misses</t>
+  </si>
 </sst>
 </file>
 
@@ -290,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -302,10 +326,11 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -583,28 +608,28 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1839686</c:v>
+                  <c:v>1851165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6400983</c:v>
+                  <c:v>4336163</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5501337</c:v>
+                  <c:v>4299992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6417378</c:v>
+                  <c:v>6857697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1212031</c:v>
+                  <c:v>6875533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1234938</c:v>
+                  <c:v>6922423</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3903148</c:v>
+                  <c:v>6993498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2912524</c:v>
+                  <c:v>3116453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,11 +728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97383936"/>
-        <c:axId val="97400320"/>
+        <c:axId val="105744256"/>
+        <c:axId val="105758720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97383936"/>
+        <c:axId val="105744256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97400320"/>
+        <c:crossAx val="105758720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -744,7 +769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97400320"/>
+        <c:axId val="105758720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -774,7 +799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97383936"/>
+        <c:crossAx val="105744256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1178,11 +1203,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98920320"/>
-        <c:axId val="98941184"/>
+        <c:axId val="105597568"/>
+        <c:axId val="105603840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98920320"/>
+        <c:axId val="105597568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,7 +1236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98941184"/>
+        <c:crossAx val="105603840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1219,7 +1244,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98941184"/>
+        <c:axId val="105603840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1274,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98920320"/>
+        <c:crossAx val="105597568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1489,11 +1514,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59022336"/>
-        <c:axId val="59176064"/>
+        <c:axId val="105637760"/>
+        <c:axId val="105639936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59022336"/>
+        <c:axId val="105637760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59176064"/>
+        <c:crossAx val="105639936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1530,7 +1555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59176064"/>
+        <c:axId val="105639936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,7 +1585,400 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59022336"/>
+        <c:crossAx val="105637760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Singly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> Linked List; Stoker; All Locks; 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) CAS lock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$22:$Y$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$23:$Y$23</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1771193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4481236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4253701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3122722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4925968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2767640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4615406</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4908164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$22:$Y$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$24:$Y$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1003746</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1008307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1013533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1013987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1021782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1037191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1063107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1097845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$22:$Y$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$25:$Y$25</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1824016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1346565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1353986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1354710</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1149411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>926257</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>926629</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>949073</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="42398464"/>
+        <c:axId val="42400384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="42398464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42400384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="42400384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42398464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1648,16 +2066,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2295525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1362075</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>723901</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1673,6 +2091,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1968,10 +2418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:X470"/>
+  <dimension ref="A4:AB470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="Q238" activeCellId="1" sqref="L238:L239 Q238:Q239"/>
+    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40:W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,10 +2438,11 @@
     <col min="15" max="15" width="14.7109375" customWidth="1"/>
     <col min="16" max="16" width="15.28515625" customWidth="1"/>
     <col min="17" max="17" width="24" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
     <col min="19" max="19" width="14.85546875" customWidth="1"/>
     <col min="22" max="22" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2113,15 +2564,15 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2188,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="6">
-        <v>1839686</v>
+        <v>1851165</v>
       </c>
       <c r="C13" s="6">
-        <v>6400983</v>
+        <v>4336163</v>
       </c>
       <c r="D13" s="6">
-        <v>5501337</v>
+        <v>4299992</v>
       </c>
       <c r="E13" s="6">
-        <v>6417378</v>
+        <v>6857697</v>
       </c>
       <c r="F13" s="6">
-        <v>1212031</v>
+        <v>6875533</v>
       </c>
       <c r="G13" s="6">
-        <v>1234938</v>
+        <v>6922423</v>
       </c>
       <c r="H13" s="6">
-        <v>3903148</v>
+        <v>6993498</v>
       </c>
       <c r="I13" s="6">
-        <v>2912524</v>
+        <v>3116453</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2299,7 +2750,7 @@
         <v>27924</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2328,7 +2779,7 @@
         <v>300643</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2357,7 +2808,7 @@
         <v>937594</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2370,7 +2821,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2399,7 +2850,7 @@
         <v>353075</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2428,7 +2879,7 @@
         <v>28346</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2440,8 +2891,32 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <v>8</v>
+      </c>
+      <c r="V22">
+        <v>16</v>
+      </c>
+      <c r="W22">
+        <v>32</v>
+      </c>
+      <c r="X22">
+        <v>64</v>
+      </c>
+      <c r="Y22">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2469,8 +2944,35 @@
       <c r="I23" s="6">
         <v>1367</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="6">
+        <v>1771193</v>
+      </c>
+      <c r="S23" s="6">
+        <v>4481236</v>
+      </c>
+      <c r="T23" s="6">
+        <v>4253701</v>
+      </c>
+      <c r="U23" s="6">
+        <v>3122722</v>
+      </c>
+      <c r="V23" s="6">
+        <v>4925968</v>
+      </c>
+      <c r="W23" s="6">
+        <v>2767640</v>
+      </c>
+      <c r="X23" s="6">
+        <v>4615406</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>4908164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2498,8 +3000,35 @@
       <c r="I24" s="6">
         <v>382758</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="6">
+        <v>1003746</v>
+      </c>
+      <c r="S24" s="6">
+        <v>1008307</v>
+      </c>
+      <c r="T24" s="6">
+        <v>1013533</v>
+      </c>
+      <c r="U24" s="6">
+        <v>1013987</v>
+      </c>
+      <c r="V24" s="6">
+        <v>1021782</v>
+      </c>
+      <c r="W24" s="6">
+        <v>1037191</v>
+      </c>
+      <c r="X24" s="6">
+        <v>1063107</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>1097845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2527,8 +3056,35 @@
       <c r="I25" s="6">
         <v>2943382</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" s="6">
+        <v>1824016</v>
+      </c>
+      <c r="S25" s="6">
+        <v>1346565</v>
+      </c>
+      <c r="T25" s="6">
+        <v>1353986</v>
+      </c>
+      <c r="U25" s="6">
+        <v>1354710</v>
+      </c>
+      <c r="V25" s="6">
+        <v>1149411</v>
+      </c>
+      <c r="W25" s="6">
+        <v>926257</v>
+      </c>
+      <c r="X25" s="6">
+        <v>926629</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>949073</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2557,7 +3113,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2586,7 +3142,7 @@
         <v>2803987</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2614,8 +3170,35 @@
       <c r="I28" s="6">
         <v>2348175</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>47</v>
+      </c>
+      <c r="R28" s="11">
+        <v>82558299728</v>
+      </c>
+      <c r="S28" t="s">
+        <v>35</v>
+      </c>
+      <c r="U28" t="s">
+        <v>51</v>
+      </c>
+      <c r="V28" s="11">
+        <v>73754753414</v>
+      </c>
+      <c r="W28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z28" s="11">
+        <v>79283046259</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2643,8 +3226,26 @@
       <c r="I29" s="6">
         <v>2834344</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R29" s="11">
+        <v>79993053916</v>
+      </c>
+      <c r="S29" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" s="11">
+        <v>73458421770</v>
+      </c>
+      <c r="W29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z29" s="11">
+        <v>69425333770</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2672,8 +3273,26 @@
       <c r="I30" s="6">
         <v>2791858</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R30" s="11">
+        <v>36961822</v>
+      </c>
+      <c r="S30" t="s">
+        <v>37</v>
+      </c>
+      <c r="V30" s="11">
+        <v>37966386</v>
+      </c>
+      <c r="W30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z30" s="11">
+        <v>25294826</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2685,8 +3304,35 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R31" s="11">
+        <v>29457791</v>
+      </c>
+      <c r="S31" t="s">
+        <v>38</v>
+      </c>
+      <c r="T31">
+        <v>50.667236046021394</v>
+      </c>
+      <c r="V31" s="11">
+        <v>30268008</v>
+      </c>
+      <c r="W31" t="s">
+        <v>38</v>
+      </c>
+      <c r="X31">
+        <v>77.918622500978216</v>
+      </c>
+      <c r="Z31" s="11">
+        <v>18165651</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB31">
+        <v>73.166653686548472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2714,8 +3360,26 @@
       <c r="I32" s="6">
         <v>1895925</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R32" s="11">
+        <v>14583767144</v>
+      </c>
+      <c r="S32" t="s">
+        <v>39</v>
+      </c>
+      <c r="V32" s="11">
+        <v>12986323663</v>
+      </c>
+      <c r="W32" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z32" s="11">
+        <v>13720399328</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2743,8 +3407,35 @@
       <c r="I33" s="6">
         <v>2517295</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R33" s="11">
+        <v>85001684</v>
+      </c>
+      <c r="S33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33">
+        <v>5.5695737849332259E-2</v>
+      </c>
+      <c r="V33" s="11">
+        <v>87687563</v>
+      </c>
+      <c r="W33" t="s">
+        <v>40</v>
+      </c>
+      <c r="X33">
+        <v>0.54227711554992397</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>50788864</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB33">
+        <v>0.26460802304224473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2756,8 +3447,26 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R34" s="11">
+        <v>7447579029</v>
+      </c>
+      <c r="S34" t="s">
+        <v>41</v>
+      </c>
+      <c r="V34" s="11">
+        <v>7449660287</v>
+      </c>
+      <c r="W34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z34" s="11">
+        <v>7443477175</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2785,8 +3494,26 @@
       <c r="I35" s="6">
         <v>2963781</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R35" s="11">
+        <v>56541.019141999997</v>
+      </c>
+      <c r="S35" t="s">
+        <v>42</v>
+      </c>
+      <c r="V35" s="11">
+        <v>56551.893838999997</v>
+      </c>
+      <c r="W35" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>56507.986220999999</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2814,8 +3541,26 @@
       <c r="I36" s="6">
         <v>553487</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R36" s="11">
+        <v>56541.287886999999</v>
+      </c>
+      <c r="S36" t="s">
+        <v>43</v>
+      </c>
+      <c r="V36" s="11">
+        <v>56552.991120999999</v>
+      </c>
+      <c r="W36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z36" s="11">
+        <v>56508.155189999998</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -2843,8 +3588,35 @@
       <c r="I37" s="6">
         <v>1319463</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R37" s="11">
+        <v>53250730840</v>
+      </c>
+      <c r="S37" t="s">
+        <v>44</v>
+      </c>
+      <c r="T37">
+        <v>88.749483220808813</v>
+      </c>
+      <c r="V37" s="11">
+        <v>47451561515</v>
+      </c>
+      <c r="W37" t="s">
+        <v>44</v>
+      </c>
+      <c r="X37">
+        <v>64.184005504861759</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>51107363705</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB37">
+        <v>64.265241130843222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -2872,8 +3644,35 @@
       <c r="I38" s="7">
         <v>173</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R38" s="11">
+        <v>16853118796</v>
+      </c>
+      <c r="S38" t="s">
+        <v>45</v>
+      </c>
+      <c r="T38">
+        <v>45.999796145462902</v>
+      </c>
+      <c r="V38" s="11">
+        <v>19804503959</v>
+      </c>
+      <c r="W38" t="s">
+        <v>45</v>
+      </c>
+      <c r="X38">
+        <v>25.996948385166341</v>
+      </c>
+      <c r="Z38" s="11">
+        <v>28746549934</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB38">
+        <v>36.865107953874791</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -2902,7 +3701,7 @@
         <v>1326474</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -2930,8 +3729,23 @@
       <c r="I40" s="6">
         <v>73838</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="S40" t="s">
+        <v>78</v>
+      </c>
+      <c r="T40" t="s">
+        <v>79</v>
+      </c>
+      <c r="U40" t="s">
+        <v>80</v>
+      </c>
+      <c r="V40" t="s">
+        <v>81</v>
+      </c>
+      <c r="W40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -2959,8 +3773,26 @@
       <c r="I41" s="6">
         <v>173395</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R41" t="s">
+        <v>75</v>
+      </c>
+      <c r="S41" s="11">
+        <v>79283046259</v>
+      </c>
+      <c r="T41" s="11">
+        <v>25294826</v>
+      </c>
+      <c r="U41" s="11">
+        <v>18165651</v>
+      </c>
+      <c r="V41" s="11">
+        <v>13720399328</v>
+      </c>
+      <c r="W41" s="11">
+        <v>50788864</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -2988,8 +3820,26 @@
       <c r="I42" s="6">
         <v>1326632</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R42" t="s">
+        <v>76</v>
+      </c>
+      <c r="S42" s="11">
+        <v>73754753414</v>
+      </c>
+      <c r="T42" s="11">
+        <v>37966386</v>
+      </c>
+      <c r="U42" s="11">
+        <v>30268008</v>
+      </c>
+      <c r="V42" s="11">
+        <v>12986323663</v>
+      </c>
+      <c r="W42" s="11">
+        <v>87687563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -3001,8 +3851,26 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R43" t="s">
+        <v>77</v>
+      </c>
+      <c r="S43" s="11">
+        <v>82558299728</v>
+      </c>
+      <c r="T43" s="11">
+        <v>36961822</v>
+      </c>
+      <c r="U43" s="11">
+        <v>29457791</v>
+      </c>
+      <c r="V43" s="11">
+        <v>14583767144</v>
+      </c>
+      <c r="W43" s="11">
+        <v>85001684</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -3031,7 +3899,7 @@
         <v>229328</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -3060,7 +3928,7 @@
         <v>85934</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -3073,7 +3941,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -3103,15 +3971,15 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -3452,7 +4320,7 @@
       <c r="I64" s="6"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -3481,8 +4349,9 @@
         <v>13080</v>
       </c>
       <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V65" s="3"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -3496,7 +4365,7 @@
       <c r="I66" s="6"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -3511,7 +4380,7 @@
       <c r="L67" s="1"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -3526,7 +4395,7 @@
       <c r="L68" s="1"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -3555,7 +4424,7 @@
         <v>9685</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -3584,8 +4453,9 @@
         <v>11996</v>
       </c>
       <c r="L70" s="5"/>
-    </row>
-    <row r="71" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V70"/>
+    </row>
+    <row r="71" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -3614,7 +4484,7 @@
         <v>9605</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>29</v>
       </c>
@@ -3628,7 +4498,7 @@
       <c r="I72" s="6"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -3658,8 +4528,9 @@
       </c>
       <c r="L73" s="1"/>
       <c r="O73" s="2"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V73" s="3"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -3674,7 +4545,7 @@
       <c r="L74" s="1"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>32</v>
       </c>
@@ -3689,7 +4560,7 @@
       <c r="L75" s="1"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -3704,7 +4575,7 @@
       <c r="L76" s="1"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -3733,7 +4604,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>55</v>
       </c>
@@ -3746,7 +4617,7 @@
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -3759,7 +4630,7 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>57</v>
       </c>
@@ -4029,15 +4900,15 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
       <c r="K93" t="s">
         <v>9</v>
       </c>
@@ -6828,7 +7699,7 @@
       <c r="K236" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L236" s="10">
+      <c r="L236" s="9">
         <v>2320251390985</v>
       </c>
       <c r="M236" s="6" t="s">
@@ -6849,9 +7720,6 @@
       <c r="T236" s="6"/>
       <c r="U236" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="V236" s="6">
-        <v>2719592214572</v>
       </c>
       <c r="W236" s="6" t="s">
         <v>35</v>
@@ -6900,7 +7768,7 @@
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
       <c r="V237" s="6">
-        <v>587651715850</v>
+        <v>2719592214572</v>
       </c>
       <c r="W237" s="6" t="s">
         <v>36</v>
@@ -6930,7 +7798,7 @@
         <v>23.706980674482296</v>
       </c>
       <c r="K238" s="6"/>
-      <c r="L238" s="10">
+      <c r="L238" s="9">
         <v>920908737</v>
       </c>
       <c r="M238" s="6" t="s">
@@ -6939,7 +7807,7 @@
       <c r="N238" s="6"/>
       <c r="O238" s="6"/>
       <c r="P238" s="6"/>
-      <c r="Q238" s="10">
+      <c r="Q238" s="9">
         <v>481953979</v>
       </c>
       <c r="R238" s="6" t="s">
@@ -6949,7 +7817,7 @@
       <c r="T238" s="6"/>
       <c r="U238" s="6"/>
       <c r="V238" s="6">
-        <v>543145791</v>
+        <v>587651715850</v>
       </c>
       <c r="W238" s="6" t="s">
         <v>37</v>
@@ -6965,7 +7833,7 @@
       <c r="H239" s="8"/>
       <c r="I239" s="8"/>
       <c r="K239" s="6"/>
-      <c r="L239" s="10">
+      <c r="L239" s="9">
         <v>376461981</v>
       </c>
       <c r="M239" s="6" t="s">
@@ -6977,7 +7845,7 @@
       </c>
       <c r="O239" s="6"/>
       <c r="P239" s="6"/>
-      <c r="Q239" s="10">
+      <c r="Q239" s="9">
         <v>248623295</v>
       </c>
       <c r="R239" s="6" t="s">
@@ -6990,13 +7858,13 @@
       <c r="T239" s="6"/>
       <c r="U239" s="6"/>
       <c r="V239" s="6">
-        <v>275196960</v>
+        <v>543145791</v>
       </c>
       <c r="W239" s="6" t="s">
         <v>38</v>
       </c>
       <c r="X239" s="6">
-        <f>V239/V238*100</f>
+        <f>V240/V239*100</f>
         <v>50.667236046021394</v>
       </c>
     </row>
@@ -7040,7 +7908,7 @@
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
       <c r="V240" s="6">
-        <v>196795694307</v>
+        <v>275196960</v>
       </c>
       <c r="W240" s="6" t="s">
         <v>39</v>
@@ -7086,13 +7954,13 @@
       <c r="T241" s="6"/>
       <c r="U241" s="6"/>
       <c r="V241" s="6">
-        <v>109606814</v>
+        <v>196795694307</v>
       </c>
       <c r="W241" s="6" t="s">
         <v>40</v>
       </c>
       <c r="X241" s="6">
-        <f>V241/V240*100</f>
+        <f>V242/V241*100</f>
         <v>5.5695737849332259E-2</v>
       </c>
     </row>
@@ -7129,7 +7997,7 @@
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
       <c r="V242" s="6">
-        <v>172475484924</v>
+        <v>109606814</v>
       </c>
       <c r="W242" s="6" t="s">
         <v>41</v>
@@ -7177,7 +8045,7 @@
       <c r="T243" s="6"/>
       <c r="U243" s="6"/>
       <c r="V243" s="6">
-        <v>1303150.86182</v>
+        <v>172475484924</v>
       </c>
       <c r="W243" s="6" t="s">
         <v>42</v>
@@ -7217,7 +8085,7 @@
       <c r="T244" s="6"/>
       <c r="U244" s="6"/>
       <c r="V244" s="6">
-        <v>1303149.8870560001</v>
+        <v>1303150.86182</v>
       </c>
       <c r="W244" s="6" t="s">
         <v>43</v>
@@ -7271,13 +8139,13 @@
       <c r="T245" s="6"/>
       <c r="U245" s="6"/>
       <c r="V245" s="6">
-        <v>2413624036146</v>
+        <v>1303149.8870560001</v>
       </c>
       <c r="W245" s="6" t="s">
         <v>44</v>
       </c>
       <c r="X245" s="6">
-        <f>V245/V236*100</f>
+        <f>V246/V237*100</f>
         <v>88.749483220808813</v>
       </c>
     </row>
@@ -7295,7 +8163,7 @@
         <v>41</v>
       </c>
       <c r="K246" s="6"/>
-      <c r="L246" s="10">
+      <c r="L246" s="9">
         <v>1373819293598</v>
       </c>
       <c r="M246" s="6" t="s">
@@ -7320,13 +8188,13 @@
       <c r="T246" s="6"/>
       <c r="U246" s="6"/>
       <c r="V246" s="6">
-        <v>1251006874691</v>
+        <v>2413624036146</v>
       </c>
       <c r="W246" s="6" t="s">
         <v>45</v>
       </c>
       <c r="X246" s="6">
-        <f>V246/V236*100</f>
+        <f>V247/V237*100</f>
         <v>45.999796145462902</v>
       </c>
     </row>
@@ -7354,7 +8222,9 @@
       <c r="S247" s="6"/>
       <c r="T247" s="6"/>
       <c r="U247" s="6"/>
-      <c r="V247" s="6"/>
+      <c r="V247" s="6">
+        <v>1251006874691</v>
+      </c>
       <c r="W247" s="6"/>
       <c r="X247" s="6"/>
     </row>
@@ -7371,6 +8241,7 @@
       <c r="H248" t="s">
         <v>43</v>
       </c>
+      <c r="V248" s="6"/>
     </row>
     <row r="249" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B249" s="1">

--- a/Data Structures/linked_list/Singly Linked List/Singly Linked_List.xlsx
+++ b/Data Structures/linked_list/Singly Linked List/Singly Linked_List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="91">
   <si>
     <t>Singly Linked List 128</t>
   </si>
@@ -269,6 +269,30 @@
   <si>
     <t>Branch Misses</t>
   </si>
+  <si>
+    <t>Lockless</t>
+  </si>
+  <si>
+    <t>Test-and-test-and-set-no-pause</t>
+  </si>
+  <si>
+    <t>Test-and-test-and-set-relax</t>
+  </si>
+  <si>
+    <t>Stalled Frontend Cycles</t>
+  </si>
+  <si>
+    <t>Stalled Backend Cycles</t>
+  </si>
+  <si>
+    <t>TAS</t>
+  </si>
+  <si>
+    <t>Stoker (32 Core) 131072 Lockless</t>
+  </si>
+  <si>
+    <t>Stoker (32 Core) 131072 Locked</t>
+  </si>
 </sst>
 </file>
 
@@ -327,10 +351,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -728,11 +752,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105744256"/>
-        <c:axId val="105758720"/>
+        <c:axId val="100763904"/>
+        <c:axId val="100778368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105744256"/>
+        <c:axId val="100763904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,7 +785,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105758720"/>
+        <c:crossAx val="100778368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -769,7 +793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105758720"/>
+        <c:axId val="100778368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +823,1497 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105744256"/>
+        <c:crossAx val="100763904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Singly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> Linked List; Stoker; Lockless; 128 &amp; 131072 Key Ranges</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3457942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3416827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7830031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3385509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>868520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>817838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>830026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>933362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 131072 Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$53:$S$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40767</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="69978368"/>
+        <c:axId val="69980544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="69978368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69980544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69980544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69978368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Singly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> Linked List; All Machines; Pthread Mutex Lock; 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BO$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BP$18:$BW$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BP$23:$BW$23</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1838813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1690111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1007093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>730487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>267862</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>243491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>226570</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>233753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BO$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local Machine (4 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BP$18:$BW$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BP$25:$BW$25</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2145875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>408496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>407758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400163</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>397505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>388970</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>382758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BO$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BP$18:$BW$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BP$27:$BW$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1741851</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2916366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1468782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1005770</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>862864</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>510885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>546768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>553487</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="92810624"/>
+        <c:axId val="92813184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="92810624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92813184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92813184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92810624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Singly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> Linked List; All Machines; Lockless; 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BO$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BP$18:$BW$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BP$19:$BW$19</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3457942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3416827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7830031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3385509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>868520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>817838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>830026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>933362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BO$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local Machine (4 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BP$18:$BW$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BP$20:$BW$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2597972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5933138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11066666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14458128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16338123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16222973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15641009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15761452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BO$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BP$18:$BW$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BP$21:$BW$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3690578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3311489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2665209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7630364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4515781</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2527847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2487619</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1829394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="69931008"/>
+        <c:axId val="69933312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="69931008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69933312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69933312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69931008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Singly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> Linked List; All Machines; Test-and-test-and-set Lock; 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BO$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BP$18:$BW$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BP$24:$BW$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1846394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1599934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1356480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1358244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1366653</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>945592</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>911082</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>937594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BO$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local Machine (4 Core) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BP$18:$BW$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BP$26:$BW$26</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2876793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2841159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2833474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2832143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2824200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2814949</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2812438</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2791858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BO$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BP$18:$BW$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BP$28:$BW$28</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1692884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1321021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1328375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1315409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1316315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1311385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1304244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1326632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="108946560"/>
+        <c:axId val="109019520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="108946560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109019520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="109019520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108946560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1203,11 +2717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105597568"/>
-        <c:axId val="105603840"/>
+        <c:axId val="99372032"/>
+        <c:axId val="99378304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105597568"/>
+        <c:axId val="99372032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,7 +2750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105603840"/>
+        <c:crossAx val="99378304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1244,7 +2758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105603840"/>
+        <c:axId val="99378304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1274,7 +2788,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105597568"/>
+        <c:crossAx val="99372032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1514,11 +3028,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105637760"/>
-        <c:axId val="105639936"/>
+        <c:axId val="99412224"/>
+        <c:axId val="99414400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105637760"/>
+        <c:axId val="99412224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +3061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105639936"/>
+        <c:crossAx val="99414400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1555,7 +3069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105639936"/>
+        <c:axId val="99414400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,7 +3099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105637760"/>
+        <c:crossAx val="99412224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1907,11 +3421,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42398464"/>
-        <c:axId val="42400384"/>
+        <c:axId val="99318016"/>
+        <c:axId val="99320192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42398464"/>
+        <c:axId val="99318016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +3454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42400384"/>
+        <c:crossAx val="99320192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1948,7 +3462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42400384"/>
+        <c:axId val="99320192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,7 +3492,2054 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42398464"/>
+        <c:crossAx val="99318016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Singly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> Linked List; Stoker; All Locks; 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AD$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) CAS lock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AE$18:$AL$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$19:$AL$19</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1771193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4481236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4253701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3122722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4925968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2767640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4615406</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4908164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AD$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AE$18:$AL$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$20:$AL$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1003746</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1008307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1013533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1013987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1021782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1037191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1063107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1097845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AD$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AE$18:$AL$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$21:$AL$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1824016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1346565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1353986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1354710</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1149411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>926257</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>926629</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>949073</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AD$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AE$18:$AL$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$22:$AL$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3457942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3416827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7830031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3385509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>868520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>817838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>830026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>933362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="109543424"/>
+        <c:axId val="109545344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="109543424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109545344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="109545344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109543424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Singly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> Linked List; Stoker; TTAS; 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AO$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AP$18:$AW$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AP$19:$AW$19</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1845678</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>838572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>356447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>219166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>365855</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>257476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AO$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AP$18:$AW$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AP$20:$AW$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1830504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1080246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1086814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1081338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1100422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1116626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1127767</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1172374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AO$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AP$18:$AW$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AP$21:$AW$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1840450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>854650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>242527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>434652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="108962176"/>
+        <c:axId val="108965248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="108962176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108965248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108965248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108962176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Singly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> Linked List; Stoker; TAS; 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BB$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BC$18:$BJ$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BC$19:$BJ$19</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1349197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1595170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1337758</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1326893</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1342435</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1344997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1359770</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>910776</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BB$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BC$18:$BJ$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BC$20:$BJ$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>921563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>753246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>282624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54084</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BB$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$BC$18:$BJ$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BC$21:$BJ$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1841780</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>713130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36681</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="99325440"/>
+        <c:axId val="102732160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99325440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102732160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102732160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99325440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Singly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> Linked List; Stoker; Pthread Mutex Lock; 128 &amp; 131072 Key Ranges</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1838813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1690111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1007093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>730487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>267862</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>243491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>226570</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>233753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 131072 Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="38763520"/>
+        <c:axId val="38877440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="38763520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38877440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38877440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38763520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Singly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> Linked List; Stoker &amp; Cube; CAS Lock vs Lockless; 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3457942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3416827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7830031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3385509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>868520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>817838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>830026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>933362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3690578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3311489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2665209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7630364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4515781</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2527847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2487619</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1829394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) CAS lock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1851165</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4336163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4299992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6857697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6875533</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6922423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6993498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3116453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) CAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2067405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2069438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4011004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4136170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6699567</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6729048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6562365</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1319463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="109752320"/>
+        <c:axId val="109754240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="109752320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109754240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="109754240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109752320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2123,6 +5684,294 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2418,10 +6267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AB470"/>
+  <dimension ref="A4:BW470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40:W43"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="BT4" sqref="BT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,6 +6292,15 @@
     <col min="22" max="22" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.42578125" customWidth="1"/>
+    <col min="30" max="30" width="22" customWidth="1"/>
+    <col min="31" max="31" width="19.7109375" customWidth="1"/>
+    <col min="41" max="41" width="27" customWidth="1"/>
+    <col min="42" max="42" width="23.28515625" customWidth="1"/>
+    <col min="54" max="54" width="24" customWidth="1"/>
+    <col min="55" max="55" width="16.85546875" customWidth="1"/>
+    <col min="59" max="59" width="18.28515625" customWidth="1"/>
+    <col min="63" max="63" width="17.140625" customWidth="1"/>
+    <col min="67" max="67" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2564,15 +6422,15 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2750,7 +6608,7 @@
         <v>27924</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2779,7 +6637,7 @@
         <v>300643</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2807,8 +6665,104 @@
       <c r="I18" s="6">
         <v>937594</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>2</v>
+      </c>
+      <c r="AG18">
+        <v>4</v>
+      </c>
+      <c r="AH18">
+        <v>8</v>
+      </c>
+      <c r="AI18">
+        <v>16</v>
+      </c>
+      <c r="AJ18">
+        <v>32</v>
+      </c>
+      <c r="AK18">
+        <v>64</v>
+      </c>
+      <c r="AL18">
+        <v>128</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>2</v>
+      </c>
+      <c r="AR18">
+        <v>4</v>
+      </c>
+      <c r="AS18">
+        <v>8</v>
+      </c>
+      <c r="AT18">
+        <v>16</v>
+      </c>
+      <c r="AU18">
+        <v>32</v>
+      </c>
+      <c r="AV18">
+        <v>64</v>
+      </c>
+      <c r="AW18">
+        <v>128</v>
+      </c>
+      <c r="BC18">
+        <v>1</v>
+      </c>
+      <c r="BD18">
+        <v>2</v>
+      </c>
+      <c r="BE18">
+        <v>4</v>
+      </c>
+      <c r="BF18">
+        <v>8</v>
+      </c>
+      <c r="BG18">
+        <v>16</v>
+      </c>
+      <c r="BH18">
+        <v>32</v>
+      </c>
+      <c r="BI18">
+        <v>64</v>
+      </c>
+      <c r="BJ18">
+        <v>128</v>
+      </c>
+      <c r="BP18">
+        <v>1</v>
+      </c>
+      <c r="BQ18">
+        <v>2</v>
+      </c>
+      <c r="BR18">
+        <v>4</v>
+      </c>
+      <c r="BS18">
+        <v>8</v>
+      </c>
+      <c r="BT18">
+        <v>16</v>
+      </c>
+      <c r="BU18">
+        <v>32</v>
+      </c>
+      <c r="BV18">
+        <v>64</v>
+      </c>
+      <c r="BW18">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2820,8 +6774,116 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>1771193</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>4481236</v>
+      </c>
+      <c r="AG19" s="6">
+        <v>4253701</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>3122722</v>
+      </c>
+      <c r="AI19" s="6">
+        <v>4925968</v>
+      </c>
+      <c r="AJ19" s="6">
+        <v>2767640</v>
+      </c>
+      <c r="AK19" s="6">
+        <v>4615406</v>
+      </c>
+      <c r="AL19" s="6">
+        <v>4908164</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP19" s="6">
+        <v>1845678</v>
+      </c>
+      <c r="AQ19" s="6">
+        <v>838572</v>
+      </c>
+      <c r="AR19" s="6">
+        <v>356447</v>
+      </c>
+      <c r="AS19" s="6">
+        <v>219166</v>
+      </c>
+      <c r="AT19" s="6">
+        <v>161895</v>
+      </c>
+      <c r="AU19" s="6">
+        <v>109604</v>
+      </c>
+      <c r="AV19" s="6">
+        <v>365855</v>
+      </c>
+      <c r="AW19" s="6">
+        <v>257476</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC19" s="6">
+        <v>1349197</v>
+      </c>
+      <c r="BD19" s="6">
+        <v>1595170</v>
+      </c>
+      <c r="BE19" s="6">
+        <v>1337758</v>
+      </c>
+      <c r="BF19" s="6">
+        <v>1326893</v>
+      </c>
+      <c r="BG19" s="6">
+        <v>1342435</v>
+      </c>
+      <c r="BH19" s="6">
+        <v>1344997</v>
+      </c>
+      <c r="BI19" s="6">
+        <v>1359770</v>
+      </c>
+      <c r="BJ19" s="6">
+        <v>910776</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP19" s="6">
+        <v>3457942</v>
+      </c>
+      <c r="BQ19" s="6">
+        <v>3416827</v>
+      </c>
+      <c r="BR19" s="6">
+        <v>7830031</v>
+      </c>
+      <c r="BS19" s="6">
+        <v>3385509</v>
+      </c>
+      <c r="BT19" s="6">
+        <v>868520</v>
+      </c>
+      <c r="BU19" s="6">
+        <v>817838</v>
+      </c>
+      <c r="BV19" s="6">
+        <v>830026</v>
+      </c>
+      <c r="BW19" s="6">
+        <v>933362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2849,8 +6911,116 @@
       <c r="I20" s="6">
         <v>353075</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>1003746</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>1008307</v>
+      </c>
+      <c r="AG20" s="6">
+        <v>1013533</v>
+      </c>
+      <c r="AH20" s="6">
+        <v>1013987</v>
+      </c>
+      <c r="AI20" s="6">
+        <v>1021782</v>
+      </c>
+      <c r="AJ20" s="6">
+        <v>1037191</v>
+      </c>
+      <c r="AK20" s="6">
+        <v>1063107</v>
+      </c>
+      <c r="AL20" s="6">
+        <v>1097845</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP20" s="6">
+        <v>1830504</v>
+      </c>
+      <c r="AQ20" s="6">
+        <v>1080246</v>
+      </c>
+      <c r="AR20" s="6">
+        <v>1086814</v>
+      </c>
+      <c r="AS20" s="6">
+        <v>1081338</v>
+      </c>
+      <c r="AT20" s="6">
+        <v>1100422</v>
+      </c>
+      <c r="AU20" s="6">
+        <v>1116626</v>
+      </c>
+      <c r="AV20" s="6">
+        <v>1127767</v>
+      </c>
+      <c r="AW20" s="6">
+        <v>1172374</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC20" s="6">
+        <v>921563</v>
+      </c>
+      <c r="BD20" s="6">
+        <v>753246</v>
+      </c>
+      <c r="BE20" s="6">
+        <v>282624</v>
+      </c>
+      <c r="BF20" s="6">
+        <v>182888</v>
+      </c>
+      <c r="BG20" s="6">
+        <v>105207</v>
+      </c>
+      <c r="BH20" s="6">
+        <v>48565</v>
+      </c>
+      <c r="BI20" s="6">
+        <v>54084</v>
+      </c>
+      <c r="BJ20" s="6">
+        <v>27924</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP20" s="7">
+        <v>2597972</v>
+      </c>
+      <c r="BQ20" s="7">
+        <v>5933138</v>
+      </c>
+      <c r="BR20" s="7">
+        <v>11066666</v>
+      </c>
+      <c r="BS20" s="7">
+        <v>14458128</v>
+      </c>
+      <c r="BT20" s="7">
+        <v>16338123</v>
+      </c>
+      <c r="BU20" s="7">
+        <v>16222973</v>
+      </c>
+      <c r="BV20" s="7">
+        <v>15641009</v>
+      </c>
+      <c r="BW20" s="7">
+        <v>15761452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2878,8 +7048,116 @@
       <c r="I21" s="6">
         <v>28346</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE21" s="6">
+        <v>1824016</v>
+      </c>
+      <c r="AF21" s="6">
+        <v>1346565</v>
+      </c>
+      <c r="AG21" s="6">
+        <v>1353986</v>
+      </c>
+      <c r="AH21" s="6">
+        <v>1354710</v>
+      </c>
+      <c r="AI21" s="6">
+        <v>1149411</v>
+      </c>
+      <c r="AJ21" s="6">
+        <v>926257</v>
+      </c>
+      <c r="AK21" s="6">
+        <v>926629</v>
+      </c>
+      <c r="AL21" s="6">
+        <v>949073</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP21" s="6">
+        <v>1840450</v>
+      </c>
+      <c r="AQ21" s="6">
+        <v>854650</v>
+      </c>
+      <c r="AR21" s="6">
+        <v>360924</v>
+      </c>
+      <c r="AS21" s="6">
+        <v>242527</v>
+      </c>
+      <c r="AT21" s="6">
+        <v>170249</v>
+      </c>
+      <c r="AU21" s="6">
+        <v>118223</v>
+      </c>
+      <c r="AV21" s="6">
+        <v>434652</v>
+      </c>
+      <c r="AW21" s="6">
+        <v>270930</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC21" s="6">
+        <v>1841780</v>
+      </c>
+      <c r="BD21" s="6">
+        <v>713130</v>
+      </c>
+      <c r="BE21" s="6">
+        <v>279865</v>
+      </c>
+      <c r="BF21" s="6">
+        <v>141361</v>
+      </c>
+      <c r="BG21" s="6">
+        <v>78677</v>
+      </c>
+      <c r="BH21" s="6">
+        <v>36681</v>
+      </c>
+      <c r="BI21" s="6">
+        <v>48871</v>
+      </c>
+      <c r="BJ21" s="6">
+        <v>24491</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP21" s="6">
+        <v>3690578</v>
+      </c>
+      <c r="BQ21" s="6">
+        <v>3311489</v>
+      </c>
+      <c r="BR21" s="6">
+        <v>2665209</v>
+      </c>
+      <c r="BS21" s="6">
+        <v>7630364</v>
+      </c>
+      <c r="BT21" s="6">
+        <v>4515781</v>
+      </c>
+      <c r="BU21" s="6">
+        <v>2527847</v>
+      </c>
+      <c r="BV21" s="6">
+        <v>2487619</v>
+      </c>
+      <c r="BW21" s="6">
+        <v>1829394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2915,8 +7193,35 @@
       <c r="Y22">
         <v>128</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE22" s="6">
+        <v>3457942</v>
+      </c>
+      <c r="AF22" s="6">
+        <v>3416827</v>
+      </c>
+      <c r="AG22" s="6">
+        <v>7830031</v>
+      </c>
+      <c r="AH22" s="6">
+        <v>3385509</v>
+      </c>
+      <c r="AI22" s="6">
+        <v>868520</v>
+      </c>
+      <c r="AJ22" s="6">
+        <v>817838</v>
+      </c>
+      <c r="AK22" s="6">
+        <v>830026</v>
+      </c>
+      <c r="AL22" s="6">
+        <v>933362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +7276,35 @@
       <c r="Y23" s="6">
         <v>4908164</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="BO23" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP23" s="6">
+        <v>1838813</v>
+      </c>
+      <c r="BQ23" s="6">
+        <v>1690111</v>
+      </c>
+      <c r="BR23" s="6">
+        <v>1007093</v>
+      </c>
+      <c r="BS23" s="6">
+        <v>730487</v>
+      </c>
+      <c r="BT23" s="6">
+        <v>267862</v>
+      </c>
+      <c r="BU23" s="6">
+        <v>243491</v>
+      </c>
+      <c r="BV23" s="6">
+        <v>226570</v>
+      </c>
+      <c r="BW23" s="6">
+        <v>233753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3027,8 +7359,35 @@
       <c r="Y24" s="6">
         <v>1097845</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="BO24" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP24" s="6">
+        <v>1846394</v>
+      </c>
+      <c r="BQ24" s="6">
+        <v>1599934</v>
+      </c>
+      <c r="BR24" s="6">
+        <v>1356480</v>
+      </c>
+      <c r="BS24" s="6">
+        <v>1358244</v>
+      </c>
+      <c r="BT24" s="6">
+        <v>1366653</v>
+      </c>
+      <c r="BU24" s="6">
+        <v>945592</v>
+      </c>
+      <c r="BV24" s="6">
+        <v>911082</v>
+      </c>
+      <c r="BW24" s="6">
+        <v>937594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3083,8 +7442,62 @@
       <c r="Y25" s="6">
         <v>949073</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="BB25" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC25" s="10">
+        <v>2695418841766</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG25" s="10">
+        <v>96139547745</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK25" s="10">
+        <v>2732057975562</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BP25" s="6">
+        <v>2145875</v>
+      </c>
+      <c r="BQ25" s="6">
+        <v>430216</v>
+      </c>
+      <c r="BR25" s="6">
+        <v>408496</v>
+      </c>
+      <c r="BS25" s="6">
+        <v>407758</v>
+      </c>
+      <c r="BT25" s="6">
+        <v>400163</v>
+      </c>
+      <c r="BU25" s="6">
+        <v>397505</v>
+      </c>
+      <c r="BV25" s="6">
+        <v>388970</v>
+      </c>
+      <c r="BW25" s="6">
+        <v>382758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3112,8 +7525,80 @@
       <c r="I26" s="6">
         <v>526</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AO26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP26" s="10">
+        <v>81130469279</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT26" s="10">
+        <v>2694259174154</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX26" s="10">
+        <v>2668937427093</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC26" s="10">
+        <v>26453038419</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG26" s="10">
+        <v>94440112818</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK26" s="10">
+        <v>33269358081</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP26" s="6">
+        <v>2876793</v>
+      </c>
+      <c r="BQ26" s="6">
+        <v>2841159</v>
+      </c>
+      <c r="BR26" s="6">
+        <v>2833474</v>
+      </c>
+      <c r="BS26" s="6">
+        <v>2832143</v>
+      </c>
+      <c r="BT26" s="6">
+        <v>2824200</v>
+      </c>
+      <c r="BU26" s="6">
+        <v>2814949</v>
+      </c>
+      <c r="BV26" s="6">
+        <v>2812438</v>
+      </c>
+      <c r="BW26" s="6">
+        <v>2791858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3141,8 +7626,71 @@
       <c r="I27" s="6">
         <v>2803987</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AP27" s="10">
+        <v>79270578542</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT27" s="10">
+        <v>169303644356</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX27" s="10">
+        <v>444072792628</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC27" s="10">
+        <v>323253673</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG27" s="10">
+        <v>48225370</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>37</v>
+      </c>
+      <c r="BK27" s="10">
+        <v>325484405</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>37</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>54</v>
+      </c>
+      <c r="BP27" s="6">
+        <v>1741851</v>
+      </c>
+      <c r="BQ27" s="6">
+        <v>2916366</v>
+      </c>
+      <c r="BR27" s="6">
+        <v>1468782</v>
+      </c>
+      <c r="BS27" s="6">
+        <v>1005770</v>
+      </c>
+      <c r="BT27" s="6">
+        <v>862864</v>
+      </c>
+      <c r="BU27" s="6">
+        <v>510885</v>
+      </c>
+      <c r="BV27" s="6">
+        <v>546768</v>
+      </c>
+      <c r="BW27" s="6">
+        <v>553487</v>
+      </c>
+    </row>
+    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3173,7 +7721,7 @@
       <c r="Q28" t="s">
         <v>47</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R28" s="10">
         <v>82558299728</v>
       </c>
       <c r="S28" t="s">
@@ -3182,7 +7730,7 @@
       <c r="U28" t="s">
         <v>51</v>
       </c>
-      <c r="V28" s="11">
+      <c r="V28" s="10">
         <v>73754753414</v>
       </c>
       <c r="W28" t="s">
@@ -3191,14 +7739,96 @@
       <c r="Y28" t="s">
         <v>68</v>
       </c>
-      <c r="Z28" s="11">
+      <c r="Z28" s="10">
         <v>79283046259</v>
       </c>
       <c r="AA28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE28" s="9">
+        <v>2320251390985</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG28" s="6"/>
+      <c r="AP28" s="10">
+        <v>38564769</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT28" s="10">
+        <v>471658813</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX28" s="10">
+        <v>553205489</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC28" s="10">
+        <v>289249516</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE28">
+        <v>89.480658739490949</v>
+      </c>
+      <c r="BG28" s="10">
+        <v>37576544</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>38</v>
+      </c>
+      <c r="BI28">
+        <v>77.918622500978216</v>
+      </c>
+      <c r="BK28" s="10">
+        <v>293145788</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>38</v>
+      </c>
+      <c r="BM28">
+        <v>56.753773961217632</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>60</v>
+      </c>
+      <c r="BP28" s="6">
+        <v>1692884</v>
+      </c>
+      <c r="BQ28" s="6">
+        <v>1321021</v>
+      </c>
+      <c r="BR28" s="6">
+        <v>1328375</v>
+      </c>
+      <c r="BS28" s="6">
+        <v>1315409</v>
+      </c>
+      <c r="BT28" s="6">
+        <v>1316315</v>
+      </c>
+      <c r="BU28" s="6">
+        <v>1311385</v>
+      </c>
+      <c r="BV28" s="6">
+        <v>1304244</v>
+      </c>
+      <c r="BW28" s="6">
+        <v>1326632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3226,26 +7856,79 @@
       <c r="I29" s="6">
         <v>2834344</v>
       </c>
-      <c r="R29" s="11">
+      <c r="R29" s="10">
         <v>79993053916</v>
       </c>
       <c r="S29" t="s">
         <v>36</v>
       </c>
-      <c r="V29" s="11">
+      <c r="V29" s="10">
         <v>73458421770</v>
       </c>
       <c r="W29" t="s">
         <v>36</v>
       </c>
-      <c r="Z29" s="11">
+      <c r="Z29" s="10">
         <v>69425333770</v>
       </c>
       <c r="AA29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6">
+        <v>244173447512</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG29" s="6"/>
+      <c r="AP29" s="10">
+        <v>30639919</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR29">
+        <v>50.667236046021394</v>
+      </c>
+      <c r="AT29" s="10">
+        <v>243422945</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV29">
+        <v>51.586521915612195</v>
+      </c>
+      <c r="AX29" s="10">
+        <v>279018701</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ29">
+        <v>50.667236046021394</v>
+      </c>
+      <c r="BC29" s="10">
+        <v>5350799425</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG29" s="10">
+        <v>16816874691</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK29" s="10">
+        <v>6401934785</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3273,26 +7956,79 @@
       <c r="I30" s="6">
         <v>2791858</v>
       </c>
-      <c r="R30" s="11">
+      <c r="R30" s="10">
         <v>36961822</v>
       </c>
       <c r="S30" t="s">
         <v>37</v>
       </c>
-      <c r="V30" s="11">
+      <c r="V30" s="10">
         <v>37966386</v>
       </c>
       <c r="W30" t="s">
         <v>37</v>
       </c>
-      <c r="Z30" s="11">
+      <c r="Z30" s="10">
         <v>25294826</v>
       </c>
       <c r="AA30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="9">
+        <v>920908737</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG30" s="6"/>
+      <c r="AP30" s="10">
+        <v>14209964743</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT30" s="10">
+        <v>40191840648</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX30" s="10">
+        <v>146423924590</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC30" s="10">
+        <v>50043215</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE30">
+        <v>0.9352474466934444</v>
+      </c>
+      <c r="BG30" s="10">
+        <v>91194063</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>40</v>
+      </c>
+      <c r="BI30">
+        <v>0.54227711554992397</v>
+      </c>
+      <c r="BK30" s="10">
+        <v>46622461</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM30">
+        <v>1.1728914442273466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3304,7 +8040,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="R31" s="11">
+      <c r="R31" s="10">
         <v>29457791</v>
       </c>
       <c r="S31" t="s">
@@ -3313,7 +8049,7 @@
       <c r="T31">
         <v>50.667236046021394</v>
       </c>
-      <c r="V31" s="11">
+      <c r="V31" s="10">
         <v>30268008</v>
       </c>
       <c r="W31" t="s">
@@ -3322,7 +8058,7 @@
       <c r="X31">
         <v>77.918622500978216</v>
       </c>
-      <c r="Z31" s="11">
+      <c r="Z31" s="10">
         <v>18165651</v>
       </c>
       <c r="AA31" t="s">
@@ -3331,8 +8067,64 @@
       <c r="AB31">
         <v>73.166653686548472</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="9">
+        <v>376461981</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG31" s="6">
+        <f>AE31/AE30*100</f>
+        <v>40.879401603505471</v>
+      </c>
+      <c r="AP31" s="10">
+        <v>88335935</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR31">
+        <v>5.5695737849332259E-2</v>
+      </c>
+      <c r="AT31" s="10">
+        <v>91780840</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV31">
+        <v>0.25467305854420447</v>
+      </c>
+      <c r="AX31" s="10">
+        <v>98945050</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ31">
+        <v>5.5695737849332259E-2</v>
+      </c>
+      <c r="BC31" s="10">
+        <v>172457299658</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG31" s="10">
+        <v>7459235755</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK31" s="10">
+        <v>173315407234</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3360,26 +8152,70 @@
       <c r="I32" s="6">
         <v>1895925</v>
       </c>
-      <c r="R32" s="11">
+      <c r="R32" s="10">
         <v>14583767144</v>
       </c>
       <c r="S32" t="s">
         <v>39</v>
       </c>
-      <c r="V32" s="11">
+      <c r="V32" s="10">
         <v>12986323663</v>
       </c>
       <c r="W32" t="s">
         <v>39</v>
       </c>
-      <c r="Z32" s="11">
+      <c r="Z32" s="10">
         <v>13720399328</v>
       </c>
       <c r="AA32" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6">
+        <v>85035305784</v>
+      </c>
+      <c r="AF32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG32" s="6"/>
+      <c r="AP32" s="10">
+        <v>7456634587</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT32" s="10">
+        <v>170397905982</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX32" s="10">
+        <v>170040606609</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC32" s="10">
+        <v>1304457.2884</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG32" s="10">
+        <v>56466.772046999999</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK32" s="10">
+        <v>1310147.056695</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3407,7 +8243,7 @@
       <c r="I33" s="6">
         <v>2517295</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R33" s="10">
         <v>85001684</v>
       </c>
       <c r="S33" t="s">
@@ -3416,7 +8252,7 @@
       <c r="T33">
         <v>5.5695737849332259E-2</v>
       </c>
-      <c r="V33" s="11">
+      <c r="V33" s="10">
         <v>87687563</v>
       </c>
       <c r="W33" t="s">
@@ -3425,7 +8261,7 @@
       <c r="X33">
         <v>0.54227711554992397</v>
       </c>
-      <c r="Z33" s="11">
+      <c r="Z33" s="10">
         <v>50788864</v>
       </c>
       <c r="AA33" t="s">
@@ -3434,8 +8270,55 @@
       <c r="AB33">
         <v>0.26460802304224473</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6">
+        <v>177461291</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG33" s="6">
+        <f>AE33/AE32*100</f>
+        <v>0.20869130693875931</v>
+      </c>
+      <c r="AP33" s="10">
+        <v>56601.066056000003</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT33" s="10">
+        <v>1287343.1289929999</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX33" s="10">
+        <v>1284959.711992</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC33" s="10">
+        <v>1304431.9304760001</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG33" s="10">
+        <v>56466.920873000003</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK33" s="10">
+        <v>1310150.0242979999</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3447,26 +8330,79 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="R34" s="11">
+      <c r="R34" s="10">
         <v>7447579029</v>
       </c>
       <c r="S34" t="s">
         <v>41</v>
       </c>
-      <c r="V34" s="11">
+      <c r="V34" s="10">
         <v>7449660287</v>
       </c>
       <c r="W34" t="s">
         <v>41</v>
       </c>
-      <c r="Z34" s="11">
+      <c r="Z34" s="10">
         <v>7443477175</v>
       </c>
       <c r="AA34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6">
+        <v>149791750431</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG34" s="6"/>
+      <c r="AP34" s="10">
+        <v>56602.216142999998</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT34" s="10">
+        <v>1287343.7484869999</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX34" s="10">
+        <v>1284959.120254</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC34" s="10">
+        <v>2682000467894</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE34">
+        <v>99.502178523646123</v>
+      </c>
+      <c r="BG34" s="10">
+        <v>61706212617</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>44</v>
+      </c>
+      <c r="BI34">
+        <v>64.184005504861759</v>
+      </c>
+      <c r="BK34" s="10">
+        <v>2713040736278</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM34">
+        <v>97.945467106029866</v>
+      </c>
+    </row>
+    <row r="35" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3494,26 +8430,88 @@
       <c r="I35" s="6">
         <v>2963781</v>
       </c>
-      <c r="R35" s="11">
+      <c r="R35" s="10">
         <v>56541.019141999997</v>
       </c>
       <c r="S35" t="s">
         <v>42</v>
       </c>
-      <c r="V35" s="11">
+      <c r="V35" s="10">
         <v>56551.893838999997</v>
       </c>
       <c r="W35" t="s">
         <v>42</v>
       </c>
-      <c r="Z35" s="11">
+      <c r="Z35" s="10">
         <v>56507.986220999999</v>
       </c>
       <c r="AA35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6">
+        <v>1133318.0912250001</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG35" s="6"/>
+      <c r="AP35" s="10">
+        <v>52226598350</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR35">
+        <v>88.749483220808813</v>
+      </c>
+      <c r="AT35" s="10">
+        <v>2597363092991</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV35">
+        <v>96.560221885227094</v>
+      </c>
+      <c r="AX35" s="10">
+        <v>2380557129188</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ35">
+        <v>88.749483220808813</v>
+      </c>
+      <c r="BC35" s="10">
+        <v>2605042998539</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE35">
+        <v>96.647057524915596</v>
+      </c>
+      <c r="BG35" s="10">
+        <v>24993348605</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI35">
+        <v>25.996948385166341</v>
+      </c>
+      <c r="BK35" s="10">
+        <v>2522397816305</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>45</v>
+      </c>
+      <c r="BM35">
+        <v>90.460643925296552</v>
+      </c>
+    </row>
+    <row r="36" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -3541,26 +8539,61 @@
       <c r="I36" s="6">
         <v>553487</v>
       </c>
-      <c r="R36" s="11">
+      <c r="R36" s="10">
         <v>56541.287886999999</v>
       </c>
       <c r="S36" t="s">
         <v>43</v>
       </c>
-      <c r="V36" s="11">
+      <c r="V36" s="10">
         <v>56552.991120999999</v>
       </c>
       <c r="W36" t="s">
         <v>43</v>
       </c>
-      <c r="Z36" s="11">
+      <c r="Z36" s="10">
         <v>56508.155189999998</v>
       </c>
       <c r="AA36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6">
+        <v>1133289.957218</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG36" s="6"/>
+      <c r="AP36" s="10">
+        <v>12480857829</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR36">
+        <v>45.999796145462902</v>
+      </c>
+      <c r="AT36" s="10">
+        <v>2314939522901</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV36">
+        <v>85.384158098125056</v>
+      </c>
+      <c r="AX36" s="10">
+        <v>1268953272943</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ36">
+        <v>45.999796145462902</v>
+      </c>
+    </row>
+    <row r="37" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -3588,7 +8621,7 @@
       <c r="I37" s="6">
         <v>1319463</v>
       </c>
-      <c r="R37" s="11">
+      <c r="R37" s="10">
         <v>53250730840</v>
       </c>
       <c r="S37" t="s">
@@ -3597,7 +8630,7 @@
       <c r="T37">
         <v>88.749483220808813</v>
       </c>
-      <c r="V37" s="11">
+      <c r="V37" s="10">
         <v>47451561515</v>
       </c>
       <c r="W37" t="s">
@@ -3606,7 +8639,7 @@
       <c r="X37">
         <v>64.184005504861759</v>
       </c>
-      <c r="Z37" s="11">
+      <c r="Z37" s="10">
         <v>51107363705</v>
       </c>
       <c r="AA37" t="s">
@@ -3615,8 +8648,19 @@
       <c r="AB37">
         <v>64.265241130843222</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6">
+        <v>2188705857980</v>
+      </c>
+      <c r="AF37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG37" s="6">
+        <f>AE37/AE28*100</f>
+        <v>94.330548253689187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -3644,7 +8688,7 @@
       <c r="I38" s="7">
         <v>173</v>
       </c>
-      <c r="R38" s="11">
+      <c r="R38" s="10">
         <v>16853118796</v>
       </c>
       <c r="S38" t="s">
@@ -3653,7 +8697,7 @@
       <c r="T38">
         <v>45.999796145462902</v>
       </c>
-      <c r="V38" s="11">
+      <c r="V38" s="10">
         <v>19804503959</v>
       </c>
       <c r="W38" t="s">
@@ -3662,7 +8706,7 @@
       <c r="X38">
         <v>25.996948385166341</v>
       </c>
-      <c r="Z38" s="11">
+      <c r="Z38" s="10">
         <v>28746549934</v>
       </c>
       <c r="AA38" t="s">
@@ -3671,8 +8715,19 @@
       <c r="AB38">
         <v>36.865107953874791</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="9">
+        <v>1373819293598</v>
+      </c>
+      <c r="AF38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG38" s="6">
+        <f>AE38/AE28*100</f>
+        <v>59.209932981218131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -3700,8 +8755,29 @@
       <c r="I39" s="6">
         <v>1326474</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AP39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -3744,8 +8820,32 @@
       <c r="W40" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AO40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP40" s="10">
+        <v>81130469279</v>
+      </c>
+      <c r="AQ40" s="10">
+        <v>38564769</v>
+      </c>
+      <c r="AR40" s="10">
+        <v>30639919</v>
+      </c>
+      <c r="AS40" s="10">
+        <v>14209964743</v>
+      </c>
+      <c r="AT40" s="10">
+        <v>88335935</v>
+      </c>
+      <c r="AU40" s="10">
+        <v>52226598350</v>
+      </c>
+      <c r="AV40" s="10">
+        <v>12480857829</v>
+      </c>
+    </row>
+    <row r="41" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -3776,23 +8876,47 @@
       <c r="R41" t="s">
         <v>75</v>
       </c>
-      <c r="S41" s="11">
+      <c r="S41" s="10">
         <v>79283046259</v>
       </c>
-      <c r="T41" s="11">
+      <c r="T41" s="10">
         <v>25294826</v>
       </c>
-      <c r="U41" s="11">
+      <c r="U41" s="10">
         <v>18165651</v>
       </c>
-      <c r="V41" s="11">
+      <c r="V41" s="10">
         <v>13720399328</v>
       </c>
-      <c r="W41" s="11">
+      <c r="W41" s="10">
         <v>50788864</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AO41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP41" s="10">
+        <v>2668937427093</v>
+      </c>
+      <c r="AQ41" s="10">
+        <v>553205489</v>
+      </c>
+      <c r="AR41" s="10">
+        <v>279018701</v>
+      </c>
+      <c r="AS41" s="10">
+        <v>146423924590</v>
+      </c>
+      <c r="AT41" s="10">
+        <v>98945050</v>
+      </c>
+      <c r="AU41" s="10">
+        <v>2380557129188</v>
+      </c>
+      <c r="AV41" s="10">
+        <v>1268953272943</v>
+      </c>
+    </row>
+    <row r="42" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -3823,23 +8947,47 @@
       <c r="R42" t="s">
         <v>76</v>
       </c>
-      <c r="S42" s="11">
+      <c r="S42" s="10">
         <v>73754753414</v>
       </c>
-      <c r="T42" s="11">
+      <c r="T42" s="10">
         <v>37966386</v>
       </c>
-      <c r="U42" s="11">
+      <c r="U42" s="10">
         <v>30268008</v>
       </c>
-      <c r="V42" s="11">
+      <c r="V42" s="10">
         <v>12986323663</v>
       </c>
-      <c r="W42" s="11">
+      <c r="W42" s="10">
         <v>87687563</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AO42" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP42" s="10">
+        <v>2694259174154</v>
+      </c>
+      <c r="AQ42" s="10">
+        <v>471658813</v>
+      </c>
+      <c r="AR42" s="10">
+        <v>243422945</v>
+      </c>
+      <c r="AS42" s="10">
+        <v>40191840648</v>
+      </c>
+      <c r="AT42" s="10">
+        <v>91780840</v>
+      </c>
+      <c r="AU42" s="10">
+        <v>2597363092991</v>
+      </c>
+      <c r="AV42" s="10">
+        <v>2314939522901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -3854,23 +9002,28 @@
       <c r="R43" t="s">
         <v>77</v>
       </c>
-      <c r="S43" s="11">
+      <c r="S43" s="10">
         <v>82558299728</v>
       </c>
-      <c r="T43" s="11">
+      <c r="T43" s="10">
         <v>36961822</v>
       </c>
-      <c r="U43" s="11">
+      <c r="U43" s="10">
         <v>29457791</v>
       </c>
-      <c r="V43" s="11">
+      <c r="V43" s="10">
         <v>14583767144</v>
       </c>
-      <c r="W43" s="11">
+      <c r="W43" s="10">
         <v>85001684</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AP43" s="9"/>
+      <c r="AQ43" s="9"/>
+      <c r="AR43" s="9"/>
+      <c r="AS43" s="9"/>
+      <c r="AT43" s="9"/>
+    </row>
+    <row r="44" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -3898,8 +9051,26 @@
       <c r="I44" s="6">
         <v>229328</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R44" t="s">
+        <v>83</v>
+      </c>
+      <c r="S44" s="9">
+        <v>2320251390985</v>
+      </c>
+      <c r="T44" s="9">
+        <v>920908737</v>
+      </c>
+      <c r="U44" s="9">
+        <v>376461981</v>
+      </c>
+      <c r="V44" s="9">
+        <v>85035305784</v>
+      </c>
+      <c r="W44" s="9">
+        <v>177461291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -3928,7 +9099,7 @@
         <v>85934</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -3941,7 +9112,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -3971,15 +9142,15 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4017,7 +9188,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B53" s="6">
         <v>3346</v>
@@ -4044,7 +9215,7 @@
         <v>976</v>
       </c>
       <c r="K53" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="L53">
         <v>3503</v>
@@ -4900,15 +10071,15 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
       <c r="K93" t="s">
         <v>9</v>
       </c>

--- a/Data Structures/linked_list/Singly Linked List/Singly Linked_List.xlsx
+++ b/Data Structures/linked_list/Singly Linked List/Singly Linked_List.xlsx
@@ -298,10 +298,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#.##,,,\ &quot;B&quot;"/>
+    <numFmt numFmtId="165" formatCode="#.##,,\ &quot;M&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +317,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -338,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -355,6 +363,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -752,11 +767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100763904"/>
-        <c:axId val="100778368"/>
+        <c:axId val="98666752"/>
+        <c:axId val="98681216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100763904"/>
+        <c:axId val="98666752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100778368"/>
+        <c:crossAx val="98681216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -793,7 +808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100778368"/>
+        <c:axId val="98681216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,7 +838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100763904"/>
+        <c:crossAx val="98666752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1063,11 +1078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69978368"/>
-        <c:axId val="69980544"/>
+        <c:axId val="112355200"/>
+        <c:axId val="112357376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69978368"/>
+        <c:axId val="112355200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +1111,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69980544"/>
+        <c:crossAx val="112357376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1104,7 +1119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69980544"/>
+        <c:axId val="112357376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1137,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1134,9 +1149,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69978368"/>
+        <c:crossAx val="112355200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1456,11 +1474,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92810624"/>
-        <c:axId val="92813184"/>
+        <c:axId val="112400256"/>
+        <c:axId val="112402432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92810624"/>
+        <c:axId val="112400256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,7 +1507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92813184"/>
+        <c:crossAx val="112402432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1497,7 +1515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92813184"/>
+        <c:axId val="112402432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +1533,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1527,9 +1545,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92810624"/>
+        <c:crossAx val="112400256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1849,11 +1870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69931008"/>
-        <c:axId val="69933312"/>
+        <c:axId val="112449408"/>
+        <c:axId val="112455680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69931008"/>
+        <c:axId val="112449408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +1903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69933312"/>
+        <c:crossAx val="112455680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1890,7 +1911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69933312"/>
+        <c:axId val="112455680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1908,7 +1929,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1920,9 +1941,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69931008"/>
+        <c:crossAx val="112449408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2242,11 +2266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108946560"/>
-        <c:axId val="109019520"/>
+        <c:axId val="112494464"/>
+        <c:axId val="112500736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108946560"/>
+        <c:axId val="112494464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,7 +2299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109019520"/>
+        <c:crossAx val="112500736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2283,7 +2307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109019520"/>
+        <c:axId val="112500736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2301,7 +2325,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2313,9 +2337,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108946560"/>
+        <c:crossAx val="112494464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2717,11 +2744,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99372032"/>
-        <c:axId val="99378304"/>
+        <c:axId val="99183616"/>
+        <c:axId val="99193984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99372032"/>
+        <c:axId val="99183616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2750,7 +2777,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99378304"/>
+        <c:crossAx val="99193984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2758,7 +2785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99378304"/>
+        <c:axId val="99193984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2788,7 +2815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99372032"/>
+        <c:crossAx val="99183616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3028,11 +3055,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99412224"/>
-        <c:axId val="99414400"/>
+        <c:axId val="99219712"/>
+        <c:axId val="99221888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99412224"/>
+        <c:axId val="99219712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3061,7 +3088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99414400"/>
+        <c:crossAx val="99221888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3069,7 +3096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99414400"/>
+        <c:axId val="99221888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,7 +3126,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99412224"/>
+        <c:crossAx val="99219712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3150,7 +3177,17 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-IE" baseline="0"/>
-              <a:t> Linked List; Stoker; All Locks; 128 Key Range</a:t>
+              <a:t> Linked List; Stoker; </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Compare-and-swap, Test-and-set and Test-and-test-and-set Lock</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t>; 128 Key Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-IE"/>
           </a:p>
@@ -3421,11 +3458,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99318016"/>
-        <c:axId val="99320192"/>
+        <c:axId val="99260672"/>
+        <c:axId val="99262848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99318016"/>
+        <c:axId val="99260672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3454,7 +3491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99320192"/>
+        <c:crossAx val="99262848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3462,7 +3499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99320192"/>
+        <c:axId val="99262848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3480,7 +3517,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3492,9 +3529,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99318016"/>
+        <c:crossAx val="99260672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3543,7 +3583,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-IE" baseline="0"/>
-              <a:t> Linked List; Stoker; All Locks; 128 Key Range</a:t>
+              <a:t> Linked List; Stoker; Locks vs Lockless; 128 Key Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-IE"/>
           </a:p>
@@ -3896,11 +3936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109543424"/>
-        <c:axId val="109545344"/>
+        <c:axId val="99697792"/>
+        <c:axId val="99699712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109543424"/>
+        <c:axId val="99697792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3929,7 +3969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109545344"/>
+        <c:crossAx val="99699712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3937,7 +3977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109545344"/>
+        <c:axId val="99699712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3955,7 +3995,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3967,9 +4007,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109543424"/>
+        <c:crossAx val="99697792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4018,7 +4061,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-IE" baseline="0"/>
-              <a:t> Linked List; Stoker; TTAS; 128 Key Range</a:t>
+              <a:t> Linked List; Stoker; Test-and-test-and-set Lock; 128 Key Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-IE"/>
           </a:p>
@@ -4289,11 +4332,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108962176"/>
-        <c:axId val="108965248"/>
+        <c:axId val="99734656"/>
+        <c:axId val="99736576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108962176"/>
+        <c:axId val="99734656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4322,7 +4365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108965248"/>
+        <c:crossAx val="99736576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4330,7 +4373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108965248"/>
+        <c:axId val="99736576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4348,7 +4391,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4360,9 +4403,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108962176"/>
+        <c:crossAx val="99734656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4682,11 +4728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99325440"/>
-        <c:axId val="102732160"/>
+        <c:axId val="99771520"/>
+        <c:axId val="99773440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99325440"/>
+        <c:axId val="99771520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4715,7 +4761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102732160"/>
+        <c:crossAx val="99773440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4723,7 +4769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102732160"/>
+        <c:axId val="99773440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4753,7 +4799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99325440"/>
+        <c:crossAx val="99771520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4993,11 +5039,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38763520"/>
-        <c:axId val="38877440"/>
+        <c:axId val="112601344"/>
+        <c:axId val="112607616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38763520"/>
+        <c:axId val="112601344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5026,7 +5072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38877440"/>
+        <c:crossAx val="112607616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5034,7 +5080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38877440"/>
+        <c:axId val="112607616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5052,7 +5098,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterations per second</a:t>
+                  <a:t>Millions of Iterations per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5064,9 +5110,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38763520"/>
+        <c:crossAx val="112601344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5468,11 +5517,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109752320"/>
-        <c:axId val="109754240"/>
+        <c:axId val="112646784"/>
+        <c:axId val="112329472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109752320"/>
+        <c:axId val="112646784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5501,7 +5550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109754240"/>
+        <c:crossAx val="112329472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5509,7 +5558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109754240"/>
+        <c:axId val="112329472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5539,7 +5588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109752320"/>
+        <c:crossAx val="112646784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5787,16 +5836,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5851,16 +5900,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5883,16 +5932,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5921,9 +5970,9 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5947,16 +5996,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6269,8 +6318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:BW470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
-      <selection activeCell="BT4" sqref="BT4"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BY28" sqref="BY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6296,6 +6345,9 @@
     <col min="31" max="31" width="19.7109375" customWidth="1"/>
     <col min="41" max="41" width="27" customWidth="1"/>
     <col min="42" max="42" width="23.28515625" customWidth="1"/>
+    <col min="43" max="44" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="24" customWidth="1"/>
     <col min="55" max="55" width="16.85546875" customWidth="1"/>
     <col min="59" max="59" width="18.28515625" customWidth="1"/>
@@ -8726,6 +8778,14 @@
         <f>AE38/AE28*100</f>
         <v>59.209932981218131</v>
       </c>
+      <c r="AO38" s="16"/>
+      <c r="AP38" s="16"/>
+      <c r="AQ38" s="16"/>
+      <c r="AR38" s="16"/>
+      <c r="AS38" s="16"/>
+      <c r="AT38" s="16"/>
+      <c r="AU38" s="16"/>
+      <c r="AV38" s="16"/>
     </row>
     <row r="39" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -8755,25 +8815,26 @@
       <c r="I39" s="6">
         <v>1326474</v>
       </c>
-      <c r="AP39" t="s">
+      <c r="AO39" s="16"/>
+      <c r="AP39" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="AQ39" t="s">
+      <c r="AQ39" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AR39" t="s">
+      <c r="AR39" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AS39" t="s">
+      <c r="AS39" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AT39" t="s">
+      <c r="AT39" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="AU39" t="s">
+      <c r="AU39" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="AV39" t="s">
+      <c r="AV39" s="16" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8820,28 +8881,28 @@
       <c r="W40" t="s">
         <v>82</v>
       </c>
-      <c r="AO40" t="s">
+      <c r="AO40" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AP40" s="10">
+      <c r="AP40" s="17">
         <v>81130469279</v>
       </c>
-      <c r="AQ40" s="10">
+      <c r="AQ40" s="18">
         <v>38564769</v>
       </c>
-      <c r="AR40" s="10">
+      <c r="AR40" s="18">
         <v>30639919</v>
       </c>
-      <c r="AS40" s="10">
+      <c r="AS40" s="17">
         <v>14209964743</v>
       </c>
-      <c r="AT40" s="10">
+      <c r="AT40" s="18">
         <v>88335935</v>
       </c>
-      <c r="AU40" s="10">
+      <c r="AU40" s="17">
         <v>52226598350</v>
       </c>
-      <c r="AV40" s="10">
+      <c r="AV40" s="17">
         <v>12480857829</v>
       </c>
     </row>
@@ -8876,43 +8937,43 @@
       <c r="R41" t="s">
         <v>75</v>
       </c>
-      <c r="S41" s="10">
+      <c r="S41" s="12">
         <v>79283046259</v>
       </c>
-      <c r="T41" s="10">
+      <c r="T41" s="14">
         <v>25294826</v>
       </c>
-      <c r="U41" s="10">
+      <c r="U41" s="14">
         <v>18165651</v>
       </c>
-      <c r="V41" s="10">
+      <c r="V41" s="12">
         <v>13720399328</v>
       </c>
-      <c r="W41" s="10">
+      <c r="W41" s="14">
         <v>50788864</v>
       </c>
-      <c r="AO41" t="s">
+      <c r="AO41" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AP41" s="10">
+      <c r="AP41" s="17">
         <v>2668937427093</v>
       </c>
-      <c r="AQ41" s="10">
+      <c r="AQ41" s="18">
         <v>553205489</v>
       </c>
-      <c r="AR41" s="10">
+      <c r="AR41" s="18">
         <v>279018701</v>
       </c>
-      <c r="AS41" s="10">
+      <c r="AS41" s="17">
         <v>146423924590</v>
       </c>
-      <c r="AT41" s="10">
+      <c r="AT41" s="18">
         <v>98945050</v>
       </c>
-      <c r="AU41" s="10">
+      <c r="AU41" s="17">
         <v>2380557129188</v>
       </c>
-      <c r="AV41" s="10">
+      <c r="AV41" s="17">
         <v>1268953272943</v>
       </c>
     </row>
@@ -8947,43 +9008,43 @@
       <c r="R42" t="s">
         <v>76</v>
       </c>
-      <c r="S42" s="10">
+      <c r="S42" s="12">
         <v>73754753414</v>
       </c>
-      <c r="T42" s="10">
+      <c r="T42" s="14">
         <v>37966386</v>
       </c>
-      <c r="U42" s="10">
+      <c r="U42" s="14">
         <v>30268008</v>
       </c>
-      <c r="V42" s="10">
+      <c r="V42" s="12">
         <v>12986323663</v>
       </c>
-      <c r="W42" s="10">
+      <c r="W42" s="14">
         <v>87687563</v>
       </c>
-      <c r="AO42" t="s">
+      <c r="AO42" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="AP42" s="10">
+      <c r="AP42" s="17">
         <v>2694259174154</v>
       </c>
-      <c r="AQ42" s="10">
+      <c r="AQ42" s="18">
         <v>471658813</v>
       </c>
-      <c r="AR42" s="10">
+      <c r="AR42" s="18">
         <v>243422945</v>
       </c>
-      <c r="AS42" s="10">
+      <c r="AS42" s="17">
         <v>40191840648</v>
       </c>
-      <c r="AT42" s="10">
+      <c r="AT42" s="18">
         <v>91780840</v>
       </c>
-      <c r="AU42" s="10">
+      <c r="AU42" s="17">
         <v>2597363092991</v>
       </c>
-      <c r="AV42" s="10">
+      <c r="AV42" s="17">
         <v>2314939522901</v>
       </c>
     </row>
@@ -9002,19 +9063,19 @@
       <c r="R43" t="s">
         <v>77</v>
       </c>
-      <c r="S43" s="10">
+      <c r="S43" s="12">
         <v>82558299728</v>
       </c>
-      <c r="T43" s="10">
+      <c r="T43" s="14">
         <v>36961822</v>
       </c>
-      <c r="U43" s="10">
+      <c r="U43" s="14">
         <v>29457791</v>
       </c>
-      <c r="V43" s="10">
+      <c r="V43" s="12">
         <v>14583767144</v>
       </c>
-      <c r="W43" s="10">
+      <c r="W43" s="14">
         <v>85001684</v>
       </c>
       <c r="AP43" s="9"/>
@@ -9054,19 +9115,19 @@
       <c r="R44" t="s">
         <v>83</v>
       </c>
-      <c r="S44" s="9">
+      <c r="S44" s="13">
         <v>2320251390985</v>
       </c>
-      <c r="T44" s="9">
+      <c r="T44" s="15">
         <v>920908737</v>
       </c>
-      <c r="U44" s="9">
+      <c r="U44" s="15">
         <v>376461981</v>
       </c>
-      <c r="V44" s="9">
+      <c r="V44" s="13">
         <v>85035305784</v>
       </c>
-      <c r="W44" s="9">
+      <c r="W44" s="15">
         <v>177461291</v>
       </c>
     </row>

--- a/Data Structures/linked_list/Singly Linked List/Singly Linked_List.xlsx
+++ b/Data Structures/linked_list/Singly Linked List/Singly Linked_List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="91">
   <si>
     <t>Singly Linked List 128</t>
   </si>
@@ -360,9 +360,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -370,6 +367,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -767,11 +767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98666752"/>
-        <c:axId val="98681216"/>
+        <c:axId val="106137856"/>
+        <c:axId val="106148224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98666752"/>
+        <c:axId val="106137856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,7 +800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98681216"/>
+        <c:crossAx val="106148224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -808,7 +808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98681216"/>
+        <c:axId val="106148224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98666752"/>
+        <c:crossAx val="106137856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1078,11 +1078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112355200"/>
-        <c:axId val="112357376"/>
+        <c:axId val="107568512"/>
+        <c:axId val="107587072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112355200"/>
+        <c:axId val="107568512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1111,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112357376"/>
+        <c:crossAx val="107587072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1119,7 +1119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112357376"/>
+        <c:axId val="107587072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,7 +1149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112355200"/>
+        <c:crossAx val="107568512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1474,11 +1474,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112400256"/>
-        <c:axId val="112402432"/>
+        <c:axId val="107626496"/>
+        <c:axId val="107628416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112400256"/>
+        <c:axId val="107626496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,7 +1507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112402432"/>
+        <c:crossAx val="107628416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1515,7 +1515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112402432"/>
+        <c:axId val="107628416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112400256"/>
+        <c:crossAx val="107626496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1870,11 +1870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112449408"/>
-        <c:axId val="112455680"/>
+        <c:axId val="107676032"/>
+        <c:axId val="107677952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112449408"/>
+        <c:axId val="107676032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112455680"/>
+        <c:crossAx val="107677952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1911,7 +1911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112455680"/>
+        <c:axId val="107677952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,7 +1941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112449408"/>
+        <c:crossAx val="107676032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -2266,11 +2266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112494464"/>
-        <c:axId val="112500736"/>
+        <c:axId val="107717376"/>
+        <c:axId val="107719296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112494464"/>
+        <c:axId val="107717376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2299,7 +2299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112500736"/>
+        <c:crossAx val="107719296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2307,7 +2307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112500736"/>
+        <c:axId val="107719296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2337,12 +2337,948 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112494464"/>
+        <c:crossAx val="107717376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
         </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Singly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> Linked List; Stoker; Pthread Mutex Lock vs Lockless; 131072 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 131072 Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$W$107:$AD$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$109:$AD$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40767</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) 131072 Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$W$107:$AD$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$110:$AD$110</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="40408960"/>
+        <c:axId val="40989824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="40408960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40989824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40989824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40408960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Singly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> Linked List; Stoker; Pthread Mutex Lock vs Lockless; 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AF$106:$AM$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$107:$AM$107</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3457942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3416827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7830031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3385509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>868520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>817838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>830026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>933362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AF$106:$AM$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$108:$AM$108</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1838813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1690111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1007093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>730487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>267862</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>243491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>226570</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>233753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="50060288"/>
+        <c:axId val="71592576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50060288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71592576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="71592576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Millions of Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Singly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> Linked List; Stoker; Pthread Mutex Lock vs Lockless; 128 Key Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$106:$AX$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$107:$AX$107</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$106:$AX$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$108:$AX$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="41891712"/>
+        <c:axId val="41951616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="41891712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41951616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="41951616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Millions of Iterations per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41891712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2744,11 +3680,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99183616"/>
-        <c:axId val="99193984"/>
+        <c:axId val="106322944"/>
+        <c:axId val="106329216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99183616"/>
+        <c:axId val="106322944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2777,7 +3713,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99193984"/>
+        <c:crossAx val="106329216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2785,7 +3721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99193984"/>
+        <c:axId val="106329216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2815,7 +3751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99183616"/>
+        <c:crossAx val="106322944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3055,11 +3991,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99219712"/>
-        <c:axId val="99221888"/>
+        <c:axId val="106359040"/>
+        <c:axId val="106365312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99219712"/>
+        <c:axId val="106359040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3088,7 +4024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99221888"/>
+        <c:crossAx val="106365312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3096,7 +4032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99221888"/>
+        <c:axId val="106365312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3126,7 +4062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99219712"/>
+        <c:crossAx val="106359040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3458,11 +4394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99260672"/>
-        <c:axId val="99262848"/>
+        <c:axId val="106404096"/>
+        <c:axId val="106406272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99260672"/>
+        <c:axId val="106404096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3491,7 +4427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99262848"/>
+        <c:crossAx val="106406272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3499,7 +4435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99262848"/>
+        <c:axId val="106406272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3529,7 +4465,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99260672"/>
+        <c:crossAx val="106404096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -3936,11 +4872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99697792"/>
-        <c:axId val="99699712"/>
+        <c:axId val="106636416"/>
+        <c:axId val="106638336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99697792"/>
+        <c:axId val="106636416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3969,7 +4905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99699712"/>
+        <c:crossAx val="106638336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3977,7 +4913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99699712"/>
+        <c:axId val="106638336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4007,7 +4943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99697792"/>
+        <c:crossAx val="106636416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -4332,11 +5268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99734656"/>
-        <c:axId val="99736576"/>
+        <c:axId val="106692608"/>
+        <c:axId val="106694528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99734656"/>
+        <c:axId val="106692608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4365,7 +5301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99736576"/>
+        <c:crossAx val="106694528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4373,7 +5309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99736576"/>
+        <c:axId val="106694528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4403,7 +5339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99734656"/>
+        <c:crossAx val="106692608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -4728,11 +5664,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99771520"/>
-        <c:axId val="99773440"/>
+        <c:axId val="106725760"/>
+        <c:axId val="106727680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99771520"/>
+        <c:axId val="106725760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4761,7 +5697,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99773440"/>
+        <c:crossAx val="106727680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4769,7 +5705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99773440"/>
+        <c:axId val="106727680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4799,7 +5735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99771520"/>
+        <c:crossAx val="106725760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5039,11 +5975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112601344"/>
-        <c:axId val="112607616"/>
+        <c:axId val="107486592"/>
+        <c:axId val="107488768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112601344"/>
+        <c:axId val="107486592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5072,7 +6008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112607616"/>
+        <c:crossAx val="107488768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5080,7 +6016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112607616"/>
+        <c:axId val="107488768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5110,7 +6046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112601344"/>
+        <c:crossAx val="107486592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -5517,11 +6453,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112646784"/>
-        <c:axId val="112329472"/>
+        <c:axId val="107549056"/>
+        <c:axId val="107550976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112646784"/>
+        <c:axId val="107549056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5550,7 +6486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112329472"/>
+        <c:crossAx val="107550976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5558,7 +6494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112329472"/>
+        <c:axId val="107550976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5588,7 +6524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112646784"/>
+        <c:crossAx val="107549056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5677,15 +6613,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>723901</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:colOff>923926</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6026,6 +6962,102 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6318,8 +7350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:BW470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BY28" sqref="BY28"/>
+    <sheetView tabSelected="1" topLeftCell="T85" workbookViewId="0">
+      <selection activeCell="AP88" sqref="AP88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6474,15 +7506,15 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -8778,14 +9810,14 @@
         <f>AE38/AE28*100</f>
         <v>59.209932981218131</v>
       </c>
-      <c r="AO38" s="16"/>
-      <c r="AP38" s="16"/>
-      <c r="AQ38" s="16"/>
-      <c r="AR38" s="16"/>
-      <c r="AS38" s="16"/>
-      <c r="AT38" s="16"/>
-      <c r="AU38" s="16"/>
-      <c r="AV38" s="16"/>
+      <c r="AO38" s="15"/>
+      <c r="AP38" s="15"/>
+      <c r="AQ38" s="15"/>
+      <c r="AR38" s="15"/>
+      <c r="AS38" s="15"/>
+      <c r="AT38" s="15"/>
+      <c r="AU38" s="15"/>
+      <c r="AV38" s="15"/>
     </row>
     <row r="39" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -8815,26 +9847,26 @@
       <c r="I39" s="6">
         <v>1326474</v>
       </c>
-      <c r="AO39" s="16"/>
-      <c r="AP39" s="16" t="s">
+      <c r="AO39" s="15"/>
+      <c r="AP39" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="AQ39" s="16" t="s">
+      <c r="AQ39" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AR39" s="16" t="s">
+      <c r="AR39" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AS39" s="16" t="s">
+      <c r="AS39" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AT39" s="16" t="s">
+      <c r="AT39" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AU39" s="16" t="s">
+      <c r="AU39" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="AV39" s="16" t="s">
+      <c r="AV39" s="15" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8881,28 +9913,28 @@
       <c r="W40" t="s">
         <v>82</v>
       </c>
-      <c r="AO40" s="16" t="s">
+      <c r="AO40" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AP40" s="17">
+      <c r="AP40" s="16">
         <v>81130469279</v>
       </c>
-      <c r="AQ40" s="18">
+      <c r="AQ40" s="17">
         <v>38564769</v>
       </c>
-      <c r="AR40" s="18">
+      <c r="AR40" s="17">
         <v>30639919</v>
       </c>
-      <c r="AS40" s="17">
+      <c r="AS40" s="16">
         <v>14209964743</v>
       </c>
-      <c r="AT40" s="18">
+      <c r="AT40" s="17">
         <v>88335935</v>
       </c>
-      <c r="AU40" s="17">
+      <c r="AU40" s="16">
         <v>52226598350</v>
       </c>
-      <c r="AV40" s="17">
+      <c r="AV40" s="16">
         <v>12480857829</v>
       </c>
     </row>
@@ -8937,43 +9969,43 @@
       <c r="R41" t="s">
         <v>75</v>
       </c>
-      <c r="S41" s="12">
+      <c r="S41" s="11">
         <v>79283046259</v>
       </c>
-      <c r="T41" s="14">
+      <c r="T41" s="13">
         <v>25294826</v>
       </c>
-      <c r="U41" s="14">
+      <c r="U41" s="13">
         <v>18165651</v>
       </c>
-      <c r="V41" s="12">
+      <c r="V41" s="11">
         <v>13720399328</v>
       </c>
-      <c r="W41" s="14">
+      <c r="W41" s="13">
         <v>50788864</v>
       </c>
-      <c r="AO41" s="16" t="s">
+      <c r="AO41" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AP41" s="17">
+      <c r="AP41" s="16">
         <v>2668937427093</v>
       </c>
-      <c r="AQ41" s="18">
+      <c r="AQ41" s="17">
         <v>553205489</v>
       </c>
-      <c r="AR41" s="18">
+      <c r="AR41" s="17">
         <v>279018701</v>
       </c>
-      <c r="AS41" s="17">
+      <c r="AS41" s="16">
         <v>146423924590</v>
       </c>
-      <c r="AT41" s="18">
+      <c r="AT41" s="17">
         <v>98945050</v>
       </c>
-      <c r="AU41" s="17">
+      <c r="AU41" s="16">
         <v>2380557129188</v>
       </c>
-      <c r="AV41" s="17">
+      <c r="AV41" s="16">
         <v>1268953272943</v>
       </c>
     </row>
@@ -9008,43 +10040,43 @@
       <c r="R42" t="s">
         <v>76</v>
       </c>
-      <c r="S42" s="12">
+      <c r="S42" s="11">
         <v>73754753414</v>
       </c>
-      <c r="T42" s="14">
+      <c r="T42" s="13">
         <v>37966386</v>
       </c>
-      <c r="U42" s="14">
+      <c r="U42" s="13">
         <v>30268008</v>
       </c>
-      <c r="V42" s="12">
+      <c r="V42" s="11">
         <v>12986323663</v>
       </c>
-      <c r="W42" s="14">
+      <c r="W42" s="13">
         <v>87687563</v>
       </c>
-      <c r="AO42" s="16" t="s">
+      <c r="AO42" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AP42" s="17">
+      <c r="AP42" s="16">
         <v>2694259174154</v>
       </c>
-      <c r="AQ42" s="18">
+      <c r="AQ42" s="17">
         <v>471658813</v>
       </c>
-      <c r="AR42" s="18">
+      <c r="AR42" s="17">
         <v>243422945</v>
       </c>
-      <c r="AS42" s="17">
+      <c r="AS42" s="16">
         <v>40191840648</v>
       </c>
-      <c r="AT42" s="18">
+      <c r="AT42" s="17">
         <v>91780840</v>
       </c>
-      <c r="AU42" s="17">
+      <c r="AU42" s="16">
         <v>2597363092991</v>
       </c>
-      <c r="AV42" s="17">
+      <c r="AV42" s="16">
         <v>2314939522901</v>
       </c>
     </row>
@@ -9063,19 +10095,19 @@
       <c r="R43" t="s">
         <v>77</v>
       </c>
-      <c r="S43" s="12">
+      <c r="S43" s="11">
         <v>82558299728</v>
       </c>
-      <c r="T43" s="14">
+      <c r="T43" s="13">
         <v>36961822</v>
       </c>
-      <c r="U43" s="14">
+      <c r="U43" s="13">
         <v>29457791</v>
       </c>
-      <c r="V43" s="12">
+      <c r="V43" s="11">
         <v>14583767144</v>
       </c>
-      <c r="W43" s="14">
+      <c r="W43" s="13">
         <v>85001684</v>
       </c>
       <c r="AP43" s="9"/>
@@ -9115,19 +10147,19 @@
       <c r="R44" t="s">
         <v>83</v>
       </c>
-      <c r="S44" s="13">
+      <c r="S44" s="12">
         <v>2320251390985</v>
       </c>
-      <c r="T44" s="15">
+      <c r="T44" s="14">
         <v>920908737</v>
       </c>
-      <c r="U44" s="15">
+      <c r="U44" s="14">
         <v>376461981</v>
       </c>
-      <c r="V44" s="13">
+      <c r="V44" s="12">
         <v>85035305784</v>
       </c>
-      <c r="W44" s="15">
+      <c r="W44" s="14">
         <v>177461291</v>
       </c>
     </row>
@@ -9203,15 +10235,15 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -10132,15 +11164,15 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
       <c r="K93" t="s">
         <v>9</v>
       </c>
@@ -10285,7 +11317,7 @@
       <c r="L96" s="1"/>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -10316,7 +11348,7 @@
       <c r="L97" s="1"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -10346,7 +11378,7 @@
       </c>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -10359,7 +11391,7 @@
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -10389,7 +11421,7 @@
       </c>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -10420,7 +11452,7 @@
       <c r="L101" s="1"/>
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -10433,7 +11465,7 @@
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -10462,7 +11494,7 @@
         <v>10131</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -10491,7 +11523,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -10520,7 +11552,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -10549,8 +11581,56 @@
         <v>10178</v>
       </c>
       <c r="L106" s="1"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AF106">
+        <v>1</v>
+      </c>
+      <c r="AG106">
+        <v>2</v>
+      </c>
+      <c r="AH106">
+        <v>4</v>
+      </c>
+      <c r="AI106">
+        <v>8</v>
+      </c>
+      <c r="AJ106">
+        <v>16</v>
+      </c>
+      <c r="AK106">
+        <v>32</v>
+      </c>
+      <c r="AL106">
+        <v>64</v>
+      </c>
+      <c r="AM106">
+        <v>128</v>
+      </c>
+      <c r="AQ106">
+        <v>1</v>
+      </c>
+      <c r="AR106">
+        <v>2</v>
+      </c>
+      <c r="AS106">
+        <v>4</v>
+      </c>
+      <c r="AT106">
+        <v>8</v>
+      </c>
+      <c r="AU106">
+        <v>16</v>
+      </c>
+      <c r="AV106">
+        <v>32</v>
+      </c>
+      <c r="AW106">
+        <v>64</v>
+      </c>
+      <c r="AX106">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -10578,8 +11658,86 @@
       <c r="I107" s="6">
         <v>320</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W107">
+        <v>1</v>
+      </c>
+      <c r="X107">
+        <v>2</v>
+      </c>
+      <c r="Y107">
+        <v>4</v>
+      </c>
+      <c r="Z107">
+        <v>8</v>
+      </c>
+      <c r="AA107">
+        <v>16</v>
+      </c>
+      <c r="AB107">
+        <v>32</v>
+      </c>
+      <c r="AC107">
+        <v>64</v>
+      </c>
+      <c r="AD107">
+        <v>128</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF107" s="6">
+        <v>3457942</v>
+      </c>
+      <c r="AG107" s="6">
+        <v>3416827</v>
+      </c>
+      <c r="AH107" s="6">
+        <v>7830031</v>
+      </c>
+      <c r="AI107" s="6">
+        <v>3385509</v>
+      </c>
+      <c r="AJ107" s="6">
+        <v>868520</v>
+      </c>
+      <c r="AK107" s="6">
+        <v>817838</v>
+      </c>
+      <c r="AL107" s="6">
+        <v>830026</v>
+      </c>
+      <c r="AM107" s="6">
+        <v>933362</v>
+      </c>
+      <c r="AP107" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ107" s="6">
+        <v>3081</v>
+      </c>
+      <c r="AR107" s="6">
+        <v>1253</v>
+      </c>
+      <c r="AS107" s="6">
+        <v>775</v>
+      </c>
+      <c r="AT107" s="6">
+        <v>968</v>
+      </c>
+      <c r="AU107" s="6">
+        <v>902</v>
+      </c>
+      <c r="AV107" s="6">
+        <v>760</v>
+      </c>
+      <c r="AW107" s="6">
+        <v>706</v>
+      </c>
+      <c r="AX107" s="6">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="108" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>22</v>
       </c>
@@ -10608,8 +11766,62 @@
         <v>14135</v>
       </c>
       <c r="L108" s="1"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AE108" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF108" s="6">
+        <v>1838813</v>
+      </c>
+      <c r="AG108" s="6">
+        <v>1690111</v>
+      </c>
+      <c r="AH108" s="6">
+        <v>1007093</v>
+      </c>
+      <c r="AI108" s="6">
+        <v>730487</v>
+      </c>
+      <c r="AJ108" s="6">
+        <v>267862</v>
+      </c>
+      <c r="AK108" s="6">
+        <v>243491</v>
+      </c>
+      <c r="AL108" s="6">
+        <v>226570</v>
+      </c>
+      <c r="AM108" s="6">
+        <v>233753</v>
+      </c>
+      <c r="AP108" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ108">
+        <v>3221</v>
+      </c>
+      <c r="AR108">
+        <v>2827</v>
+      </c>
+      <c r="AS108">
+        <v>3832</v>
+      </c>
+      <c r="AT108">
+        <v>5407</v>
+      </c>
+      <c r="AU108">
+        <v>7180</v>
+      </c>
+      <c r="AV108">
+        <v>10164</v>
+      </c>
+      <c r="AW108">
+        <v>13132</v>
+      </c>
+      <c r="AX108">
+        <v>10299</v>
+      </c>
+    </row>
+    <row r="109" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>23</v>
       </c>
@@ -10622,8 +11834,35 @@
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="L109" s="1"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V109" t="s">
+        <v>89</v>
+      </c>
+      <c r="W109">
+        <v>3503</v>
+      </c>
+      <c r="X109">
+        <v>3364</v>
+      </c>
+      <c r="Y109">
+        <v>5425</v>
+      </c>
+      <c r="Z109">
+        <v>8337</v>
+      </c>
+      <c r="AA109">
+        <v>13407</v>
+      </c>
+      <c r="AB109">
+        <v>23888</v>
+      </c>
+      <c r="AC109">
+        <v>40767</v>
+      </c>
+      <c r="AD109">
+        <v>38376</v>
+      </c>
+    </row>
+    <row r="110" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>24</v>
       </c>
@@ -10637,8 +11876,35 @@
       <c r="I110" s="6"/>
       <c r="L110" s="1"/>
       <c r="O110" s="2"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V110" t="s">
+        <v>90</v>
+      </c>
+      <c r="W110" s="6">
+        <v>3346</v>
+      </c>
+      <c r="X110" s="6">
+        <v>1404</v>
+      </c>
+      <c r="Y110" s="6">
+        <v>1046</v>
+      </c>
+      <c r="Z110" s="6">
+        <v>1351</v>
+      </c>
+      <c r="AA110" s="6">
+        <v>1113</v>
+      </c>
+      <c r="AB110" s="6">
+        <v>848</v>
+      </c>
+      <c r="AC110" s="6">
+        <v>1082</v>
+      </c>
+      <c r="AD110" s="6">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="111" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -10653,7 +11919,7 @@
       <c r="L111" s="1"/>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>26</v>
       </c>
